--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/bldgs/pcfurfe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/pcfurfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4FFD9-BA47-D649-BBAE-F359354DA2BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9265518-8980-EF4D-A7C7-2F944EE68A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="1420" windowWidth="18400" windowHeight="14920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,6 +1319,7 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1329,6 +1330,7 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">

--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/pcfurfe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\bldgs\PCFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9265518-8980-EF4D-A7C7-2F944EE68A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8303B6A-3E9D-40AB-BF33-C209787F54A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1420" windowWidth="18400" windowHeight="14920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="407">
   <si>
     <t>Source:</t>
   </si>
@@ -1244,6 +1244,18 @@
   </si>
   <si>
     <t>8/ Consumption determined by using the average electric power sector net heat rate for fossil fuels.</t>
+  </si>
+  <si>
+    <t>Energy Consumption</t>
+  </si>
+  <si>
+    <t>AEO 2021</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/tables_side.php</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1331,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1330,7 +1341,6 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1542,6 +1552,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1601,7 +1612,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Body: normal cell" xfId="13" xr:uid="{F0294189-DCE2-4A9C-A206-033C029239E6}"/>
@@ -1954,27 +1964,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="71.5" customWidth="1"/>
+    <col min="2" max="2" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="63">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1982,104 +1989,129 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2104,13 +2136,13 @@
       <selection pane="bottomRight" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="s">
         <v>318</v>
       </c>
@@ -2208,8 +2240,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>43</v>
       </c>
@@ -2221,7 +2253,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
         <v>44</v>
       </c>
@@ -2235,7 +2267,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>46</v>
       </c>
@@ -2247,7 +2279,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="20" t="s">
         <v>47</v>
       </c>
@@ -2259,7 +2291,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -2267,7 +2299,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
@@ -2278,7 +2310,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
@@ -2286,7 +2318,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2323,7 +2355,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
@@ -2424,18 +2456,18 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>54</v>
       </c>
@@ -2539,7 +2571,7 @@
         <v>7.6740000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>56</v>
       </c>
@@ -2643,7 +2675,7 @@
         <v>6.1209999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -2747,7 +2779,7 @@
         <v>-1.5839999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
@@ -2851,7 +2883,7 @@
         <v>6.8310000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>62</v>
       </c>
@@ -2955,17 +2987,17 @@
         <v>3.039E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>66</v>
       </c>
@@ -3069,7 +3101,7 @@
         <v>-3.63E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>67</v>
       </c>
@@ -3173,12 +3205,12 @@
         <v>-4.5240000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>69</v>
       </c>
@@ -3282,7 +3314,7 @@
         <v>-6.6480000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
@@ -3386,17 +3418,17 @@
         <v>-7.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>71</v>
       </c>
@@ -3500,7 +3532,7 @@
         <v>-2.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>73</v>
       </c>
@@ -3604,7 +3636,7 @@
         <v>1.9564000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
@@ -3708,7 +3740,7 @@
         <v>3.643E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>77</v>
       </c>
@@ -3812,7 +3844,7 @@
         <v>3.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>79</v>
       </c>
@@ -3916,7 +3948,7 @@
         <v>3.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
@@ -4020,7 +4052,7 @@
         <v>1.3436999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>83</v>
       </c>
@@ -4124,7 +4156,7 @@
         <v>-3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>85</v>
       </c>
@@ -4228,7 +4260,7 @@
         <v>-3.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>87</v>
       </c>
@@ -4332,7 +4364,7 @@
         <v>7.607E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
@@ -4436,7 +4468,7 @@
         <v>1.5869999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>89</v>
       </c>
@@ -4540,7 +4572,7 @@
         <v>1.026E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>90</v>
       </c>
@@ -4644,7 +4676,7 @@
         <v>-2.4854999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>91</v>
       </c>
@@ -4748,7 +4780,7 @@
         <v>-2.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>93</v>
       </c>
@@ -4852,7 +4884,7 @@
         <v>1.1168000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>95</v>
       </c>
@@ -4956,7 +4988,7 @@
         <v>8.7930000000000005E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>335</v>
       </c>
@@ -5060,7 +5092,7 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>337</v>
       </c>
@@ -5164,12 +5196,12 @@
         <v>7.1339999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>98</v>
       </c>
@@ -5273,7 +5305,7 @@
         <v>-2.983E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>99</v>
       </c>
@@ -5377,7 +5409,7 @@
         <v>8.52E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>100</v>
       </c>
@@ -5481,7 +5513,7 @@
         <v>5.5589999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>101</v>
       </c>
@@ -5585,7 +5617,7 @@
         <v>5.2570000000000004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>102</v>
       </c>
@@ -5689,7 +5721,7 @@
         <v>1.376E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>103</v>
       </c>
@@ -5793,7 +5825,7 @@
         <v>-1.81E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>105</v>
       </c>
@@ -5897,12 +5929,12 @@
         <v>-6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="25" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>106</v>
       </c>
@@ -6006,7 +6038,7 @@
         <v>-1.3488E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>107</v>
       </c>
@@ -6110,7 +6142,7 @@
         <v>-2.0957E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>108</v>
       </c>
@@ -6214,7 +6246,7 @@
         <v>-3.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>110</v>
       </c>
@@ -6318,12 +6350,12 @@
         <v>-1.4037000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>112</v>
       </c>
@@ -6427,7 +6459,7 @@
         <v>-6.0350000000000004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>113</v>
       </c>
@@ -6531,7 +6563,7 @@
         <v>-1.6150000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>114</v>
       </c>
@@ -6635,7 +6667,7 @@
         <v>-8.4010000000000005E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>115</v>
       </c>
@@ -6739,7 +6771,7 @@
         <v>1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>116</v>
       </c>
@@ -6843,7 +6875,7 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>117</v>
       </c>
@@ -6947,12 +6979,12 @@
         <v>-1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>119</v>
       </c>
@@ -7056,7 +7088,7 @@
         <v>-4.3550000000000004E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>121</v>
       </c>
@@ -7160,7 +7192,7 @@
         <v>1.8567E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>123</v>
       </c>
@@ -7264,7 +7296,7 @@
         <v>3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>125</v>
       </c>
@@ -7368,7 +7400,7 @@
         <v>3.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>127</v>
       </c>
@@ -7472,7 +7504,7 @@
         <v>3.5279999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>129</v>
       </c>
@@ -7576,7 +7608,7 @@
         <v>1.3487000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>131</v>
       </c>
@@ -7680,7 +7712,7 @@
         <v>-3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>133</v>
       </c>
@@ -7784,7 +7816,7 @@
         <v>-3.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>134</v>
       </c>
@@ -7888,7 +7920,7 @@
         <v>7.607E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>135</v>
       </c>
@@ -7992,7 +8024,7 @@
         <v>1.5869999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>136</v>
       </c>
@@ -8096,7 +8128,7 @@
         <v>1.026E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>137</v>
       </c>
@@ -8200,7 +8232,7 @@
         <v>-2.4854999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>139</v>
       </c>
@@ -8304,7 +8336,7 @@
         <v>-2.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>140</v>
       </c>
@@ -8408,7 +8440,7 @@
         <v>1.0236E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>349</v>
       </c>
@@ -8512,7 +8544,7 @@
         <v>3.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>351</v>
       </c>
@@ -8616,7 +8648,7 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>141</v>
       </c>
@@ -8720,7 +8752,7 @@
         <v>2.2759999999999998E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>143</v>
       </c>
@@ -8824,12 +8856,12 @@
         <v>-2.8930000000000002E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="98" spans="1:34" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>145</v>
       </c>
@@ -8933,7 +8965,7 @@
         <v>-5.6519999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>146</v>
       </c>
@@ -9037,7 +9069,7 @@
         <v>1.304E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>147</v>
       </c>
@@ -9141,7 +9173,7 @@
         <v>8.2000000000000001E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>148</v>
       </c>
@@ -9245,7 +9277,7 @@
         <v>-2.911E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>149</v>
       </c>
@@ -9349,7 +9381,7 @@
         <v>1.08E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>150</v>
       </c>
@@ -9453,7 +9485,7 @@
         <v>7.639E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>151</v>
       </c>
@@ -9557,7 +9589,7 @@
         <v>-6.4640000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>152</v>
       </c>
@@ -9661,7 +9693,7 @@
         <v>-9.6159999999999995E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>153</v>
       </c>
@@ -9765,7 +9797,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>154</v>
       </c>
@@ -9869,7 +9901,7 @@
         <v>9.6290000000000004E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>155</v>
       </c>
@@ -9973,7 +10005,7 @@
         <v>4.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>156</v>
       </c>
@@ -10077,7 +10109,7 @@
         <v>-3.0845999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>157</v>
       </c>
@@ -10181,7 +10213,7 @@
         <v>-8.2920000000000008E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>158</v>
       </c>
@@ -10285,111 +10317,111 @@
         <v>4.9240000000000004E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="56" t="s">
         <v>355</v>
       </c>
-      <c r="C112" s="56">
+      <c r="C112" s="57">
         <v>21.012035000000001</v>
       </c>
-      <c r="D112" s="56">
+      <c r="D112" s="57">
         <v>21.043247000000001</v>
       </c>
-      <c r="E112" s="56">
+      <c r="E112" s="57">
         <v>21.216681999999999</v>
       </c>
-      <c r="F112" s="56">
+      <c r="F112" s="57">
         <v>21.018280000000001</v>
       </c>
-      <c r="G112" s="56">
+      <c r="G112" s="57">
         <v>20.85379</v>
       </c>
-      <c r="H112" s="56">
+      <c r="H112" s="57">
         <v>20.627789</v>
       </c>
-      <c r="I112" s="56">
+      <c r="I112" s="57">
         <v>20.385228999999999</v>
       </c>
-      <c r="J112" s="56">
+      <c r="J112" s="57">
         <v>20.220219</v>
       </c>
-      <c r="K112" s="56">
+      <c r="K112" s="57">
         <v>20.168883999999998</v>
       </c>
-      <c r="L112" s="56">
+      <c r="L112" s="57">
         <v>20.144856999999998</v>
       </c>
-      <c r="M112" s="56">
+      <c r="M112" s="57">
         <v>20.183903000000001</v>
       </c>
-      <c r="N112" s="56">
+      <c r="N112" s="57">
         <v>20.200790000000001</v>
       </c>
-      <c r="O112" s="56">
+      <c r="O112" s="57">
         <v>20.210455</v>
       </c>
-      <c r="P112" s="56">
+      <c r="P112" s="57">
         <v>20.251712999999999</v>
       </c>
-      <c r="Q112" s="56">
+      <c r="Q112" s="57">
         <v>20.298100000000002</v>
       </c>
-      <c r="R112" s="56">
+      <c r="R112" s="57">
         <v>20.374268000000001</v>
       </c>
-      <c r="S112" s="56">
+      <c r="S112" s="57">
         <v>20.453151999999999</v>
       </c>
-      <c r="T112" s="56">
+      <c r="T112" s="57">
         <v>20.522358000000001</v>
       </c>
-      <c r="U112" s="56">
+      <c r="U112" s="57">
         <v>20.597715000000001</v>
       </c>
-      <c r="V112" s="56">
+      <c r="V112" s="57">
         <v>20.691054999999999</v>
       </c>
-      <c r="W112" s="56">
+      <c r="W112" s="57">
         <v>20.79027</v>
       </c>
-      <c r="X112" s="56">
+      <c r="X112" s="57">
         <v>20.887352</v>
       </c>
-      <c r="Y112" s="56">
+      <c r="Y112" s="57">
         <v>20.988150000000001</v>
       </c>
-      <c r="Z112" s="56">
+      <c r="Z112" s="57">
         <v>21.068726000000002</v>
       </c>
-      <c r="AA112" s="56">
+      <c r="AA112" s="57">
         <v>21.118212</v>
       </c>
-      <c r="AB112" s="56">
+      <c r="AB112" s="57">
         <v>21.216028000000001</v>
       </c>
-      <c r="AC112" s="56">
+      <c r="AC112" s="57">
         <v>21.321000999999999</v>
       </c>
-      <c r="AD112" s="56">
+      <c r="AD112" s="57">
         <v>21.423819999999999</v>
       </c>
-      <c r="AE112" s="56">
+      <c r="AE112" s="57">
         <v>21.530754000000002</v>
       </c>
-      <c r="AF112" s="56">
+      <c r="AF112" s="57">
         <v>21.665205</v>
       </c>
-      <c r="AG112" s="56">
+      <c r="AG112" s="57">
         <v>21.802175999999999</v>
       </c>
-      <c r="AH112" s="57">
+      <c r="AH112" s="58">
         <v>1.2310000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>356</v>
       </c>
@@ -10493,7 +10525,7 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>358</v>
       </c>
@@ -10597,12 +10629,12 @@
         <v>7.0899999999999999E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="25" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>161</v>
       </c>
@@ -10706,7 +10738,7 @@
         <v>4.5310000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>163</v>
       </c>
@@ -10810,7 +10842,7 @@
         <v>3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>165</v>
       </c>
@@ -10914,7 +10946,7 @@
         <v>5.6439999999999997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>167</v>
       </c>
@@ -11018,7 +11050,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>169</v>
       </c>
@@ -11122,12 +11154,12 @@
         <v>5.1526000000000002E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>172</v>
       </c>
@@ -11231,7 +11263,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>174</v>
       </c>
@@ -11335,7 +11367,7 @@
         <v>-5.3799999999999996E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>176</v>
       </c>
@@ -11439,7 +11471,7 @@
         <v>3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>178</v>
       </c>
@@ -11543,7 +11575,7 @@
         <v>5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>180</v>
       </c>
@@ -11647,7 +11679,7 @@
         <v>-4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>182</v>
       </c>
@@ -11751,7 +11783,7 @@
         <v>7.6099999999999996E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>184</v>
       </c>
@@ -11855,7 +11887,7 @@
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>186</v>
       </c>
@@ -11959,7 +11991,7 @@
         <v>-2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>188</v>
       </c>
@@ -12063,7 +12095,7 @@
         <v>-4.0810000000000004E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>190</v>
       </c>
@@ -12167,12 +12199,12 @@
         <v>-2.114E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>192</v>
       </c>
@@ -12276,7 +12308,7 @@
         <v>4.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>193</v>
       </c>
@@ -12380,7 +12412,7 @@
         <v>7.5940000000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>194</v>
       </c>
@@ -12484,7 +12516,7 @@
         <v>7.28E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>195</v>
       </c>
@@ -12588,7 +12620,7 @@
         <v>6.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>196</v>
       </c>
@@ -12692,7 +12724,7 @@
         <v>6.5139999999999998E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>197</v>
       </c>
@@ -12796,7 +12828,7 @@
         <v>8.4969999999999993E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>198</v>
       </c>
@@ -12900,7 +12932,7 @@
         <v>5.9420000000000002E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>199</v>
       </c>
@@ -13004,7 +13036,7 @@
         <v>3.4979999999999998E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>200</v>
       </c>
@@ -13108,7 +13140,7 @@
         <v>4.0660000000000002E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>201</v>
       </c>
@@ -13212,808 +13244,808 @@
         <v>7.528E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B147" s="58" t="s">
+    <row r="146" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B147" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="C147" s="59"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="59"/>
-      <c r="H147" s="59"/>
-      <c r="I147" s="59"/>
-      <c r="J147" s="59"/>
-      <c r="K147" s="59"/>
-      <c r="L147" s="59"/>
-      <c r="M147" s="59"/>
-      <c r="N147" s="59"/>
-      <c r="O147" s="59"/>
-      <c r="P147" s="59"/>
-      <c r="Q147" s="59"/>
-      <c r="R147" s="59"/>
-      <c r="S147" s="59"/>
-      <c r="T147" s="59"/>
-      <c r="U147" s="59"/>
-      <c r="V147" s="59"/>
-      <c r="W147" s="59"/>
-      <c r="X147" s="59"/>
-      <c r="Y147" s="59"/>
-      <c r="Z147" s="59"/>
-      <c r="AA147" s="59"/>
-      <c r="AB147" s="59"/>
-      <c r="AC147" s="59"/>
-      <c r="AD147" s="59"/>
-      <c r="AE147" s="59"/>
-      <c r="AF147" s="59"/>
-      <c r="AG147" s="59"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="60"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="60"/>
+      <c r="K147" s="60"/>
+      <c r="L147" s="60"/>
+      <c r="M147" s="60"/>
+      <c r="N147" s="60"/>
+      <c r="O147" s="60"/>
+      <c r="P147" s="60"/>
+      <c r="Q147" s="60"/>
+      <c r="R147" s="60"/>
+      <c r="S147" s="60"/>
+      <c r="T147" s="60"/>
+      <c r="U147" s="60"/>
+      <c r="V147" s="60"/>
+      <c r="W147" s="60"/>
+      <c r="X147" s="60"/>
+      <c r="Y147" s="60"/>
+      <c r="Z147" s="60"/>
+      <c r="AA147" s="60"/>
+      <c r="AB147" s="60"/>
+      <c r="AC147" s="60"/>
+      <c r="AD147" s="60"/>
+      <c r="AE147" s="60"/>
+      <c r="AF147" s="60"/>
+      <c r="AG147" s="60"/>
       <c r="AH147" s="37"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B149" s="13" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="13" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="13" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="13" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="13" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="54"/>
-      <c r="C308" s="54"/>
-      <c r="D308" s="54"/>
-      <c r="E308" s="54"/>
-      <c r="F308" s="54"/>
-      <c r="G308" s="54"/>
-      <c r="H308" s="54"/>
-      <c r="I308" s="54"/>
-      <c r="J308" s="54"/>
-      <c r="K308" s="54"/>
-      <c r="L308" s="54"/>
-      <c r="M308" s="54"/>
-      <c r="N308" s="54"/>
-      <c r="O308" s="54"/>
-      <c r="P308" s="54"/>
-      <c r="Q308" s="54"/>
-      <c r="R308" s="54"/>
-      <c r="S308" s="54"/>
-      <c r="T308" s="54"/>
-      <c r="U308" s="54"/>
-      <c r="V308" s="54"/>
-      <c r="W308" s="54"/>
-      <c r="X308" s="54"/>
-      <c r="Y308" s="54"/>
-      <c r="Z308" s="54"/>
-      <c r="AA308" s="54"/>
-      <c r="AB308" s="54"/>
-      <c r="AC308" s="54"/>
-      <c r="AD308" s="54"/>
-      <c r="AE308" s="54"/>
-      <c r="AF308" s="54"/>
-      <c r="AG308" s="54"/>
-      <c r="AH308" s="54"/>
-    </row>
-    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="54"/>
-      <c r="C511" s="54"/>
-      <c r="D511" s="54"/>
-      <c r="E511" s="54"/>
-      <c r="F511" s="54"/>
-      <c r="G511" s="54"/>
-      <c r="H511" s="54"/>
-      <c r="I511" s="54"/>
-      <c r="J511" s="54"/>
-      <c r="K511" s="54"/>
-      <c r="L511" s="54"/>
-      <c r="M511" s="54"/>
-      <c r="N511" s="54"/>
-      <c r="O511" s="54"/>
-      <c r="P511" s="54"/>
-      <c r="Q511" s="54"/>
-      <c r="R511" s="54"/>
-      <c r="S511" s="54"/>
-      <c r="T511" s="54"/>
-      <c r="U511" s="54"/>
-      <c r="V511" s="54"/>
-      <c r="W511" s="54"/>
-      <c r="X511" s="54"/>
-      <c r="Y511" s="54"/>
-      <c r="Z511" s="54"/>
-      <c r="AA511" s="54"/>
-      <c r="AB511" s="54"/>
-      <c r="AC511" s="54"/>
-      <c r="AD511" s="54"/>
-      <c r="AE511" s="54"/>
-      <c r="AF511" s="54"/>
-      <c r="AG511" s="54"/>
-      <c r="AH511" s="54"/>
-    </row>
-    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="54"/>
-      <c r="C712" s="54"/>
-      <c r="D712" s="54"/>
-      <c r="E712" s="54"/>
-      <c r="F712" s="54"/>
-      <c r="G712" s="54"/>
-      <c r="H712" s="54"/>
-      <c r="I712" s="54"/>
-      <c r="J712" s="54"/>
-      <c r="K712" s="54"/>
-      <c r="L712" s="54"/>
-      <c r="M712" s="54"/>
-      <c r="N712" s="54"/>
-      <c r="O712" s="54"/>
-      <c r="P712" s="54"/>
-      <c r="Q712" s="54"/>
-      <c r="R712" s="54"/>
-      <c r="S712" s="54"/>
-      <c r="T712" s="54"/>
-      <c r="U712" s="54"/>
-      <c r="V712" s="54"/>
-      <c r="W712" s="54"/>
-      <c r="X712" s="54"/>
-      <c r="Y712" s="54"/>
-      <c r="Z712" s="54"/>
-      <c r="AA712" s="54"/>
-      <c r="AB712" s="54"/>
-      <c r="AC712" s="54"/>
-      <c r="AD712" s="54"/>
-      <c r="AE712" s="54"/>
-      <c r="AF712" s="54"/>
-      <c r="AG712" s="54"/>
-      <c r="AH712" s="54"/>
-    </row>
-    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="54"/>
-      <c r="C887" s="54"/>
-      <c r="D887" s="54"/>
-      <c r="E887" s="54"/>
-      <c r="F887" s="54"/>
-      <c r="G887" s="54"/>
-      <c r="H887" s="54"/>
-      <c r="I887" s="54"/>
-      <c r="J887" s="54"/>
-      <c r="K887" s="54"/>
-      <c r="L887" s="54"/>
-      <c r="M887" s="54"/>
-      <c r="N887" s="54"/>
-      <c r="O887" s="54"/>
-      <c r="P887" s="54"/>
-      <c r="Q887" s="54"/>
-      <c r="R887" s="54"/>
-      <c r="S887" s="54"/>
-      <c r="T887" s="54"/>
-      <c r="U887" s="54"/>
-      <c r="V887" s="54"/>
-      <c r="W887" s="54"/>
-      <c r="X887" s="54"/>
-      <c r="Y887" s="54"/>
-      <c r="Z887" s="54"/>
-      <c r="AA887" s="54"/>
-      <c r="AB887" s="54"/>
-      <c r="AC887" s="54"/>
-      <c r="AD887" s="54"/>
-      <c r="AE887" s="54"/>
-      <c r="AF887" s="54"/>
-      <c r="AG887" s="54"/>
-      <c r="AH887" s="54"/>
-    </row>
-    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1100" s="54"/>
-      <c r="C1100" s="54"/>
-      <c r="D1100" s="54"/>
-      <c r="E1100" s="54"/>
-      <c r="F1100" s="54"/>
-      <c r="G1100" s="54"/>
-      <c r="H1100" s="54"/>
-      <c r="I1100" s="54"/>
-      <c r="J1100" s="54"/>
-      <c r="K1100" s="54"/>
-      <c r="L1100" s="54"/>
-      <c r="M1100" s="54"/>
-      <c r="N1100" s="54"/>
-      <c r="O1100" s="54"/>
-      <c r="P1100" s="54"/>
-      <c r="Q1100" s="54"/>
-      <c r="R1100" s="54"/>
-      <c r="S1100" s="54"/>
-      <c r="T1100" s="54"/>
-      <c r="U1100" s="54"/>
-      <c r="V1100" s="54"/>
-      <c r="W1100" s="54"/>
-      <c r="X1100" s="54"/>
-      <c r="Y1100" s="54"/>
-      <c r="Z1100" s="54"/>
-      <c r="AA1100" s="54"/>
-      <c r="AB1100" s="54"/>
-      <c r="AC1100" s="54"/>
-      <c r="AD1100" s="54"/>
-      <c r="AE1100" s="54"/>
-      <c r="AF1100" s="54"/>
-      <c r="AG1100" s="54"/>
-      <c r="AH1100" s="54"/>
-    </row>
-    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1227" s="54"/>
-      <c r="C1227" s="54"/>
-      <c r="D1227" s="54"/>
-      <c r="E1227" s="54"/>
-      <c r="F1227" s="54"/>
-      <c r="G1227" s="54"/>
-      <c r="H1227" s="54"/>
-      <c r="I1227" s="54"/>
-      <c r="J1227" s="54"/>
-      <c r="K1227" s="54"/>
-      <c r="L1227" s="54"/>
-      <c r="M1227" s="54"/>
-      <c r="N1227" s="54"/>
-      <c r="O1227" s="54"/>
-      <c r="P1227" s="54"/>
-      <c r="Q1227" s="54"/>
-      <c r="R1227" s="54"/>
-      <c r="S1227" s="54"/>
-      <c r="T1227" s="54"/>
-      <c r="U1227" s="54"/>
-      <c r="V1227" s="54"/>
-      <c r="W1227" s="54"/>
-      <c r="X1227" s="54"/>
-      <c r="Y1227" s="54"/>
-      <c r="Z1227" s="54"/>
-      <c r="AA1227" s="54"/>
-      <c r="AB1227" s="54"/>
-      <c r="AC1227" s="54"/>
-      <c r="AD1227" s="54"/>
-      <c r="AE1227" s="54"/>
-      <c r="AF1227" s="54"/>
-      <c r="AG1227" s="54"/>
-      <c r="AH1227" s="54"/>
-    </row>
-    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1390" s="54"/>
-      <c r="C1390" s="54"/>
-      <c r="D1390" s="54"/>
-      <c r="E1390" s="54"/>
-      <c r="F1390" s="54"/>
-      <c r="G1390" s="54"/>
-      <c r="H1390" s="54"/>
-      <c r="I1390" s="54"/>
-      <c r="J1390" s="54"/>
-      <c r="K1390" s="54"/>
-      <c r="L1390" s="54"/>
-      <c r="M1390" s="54"/>
-      <c r="N1390" s="54"/>
-      <c r="O1390" s="54"/>
-      <c r="P1390" s="54"/>
-      <c r="Q1390" s="54"/>
-      <c r="R1390" s="54"/>
-      <c r="S1390" s="54"/>
-      <c r="T1390" s="54"/>
-      <c r="U1390" s="54"/>
-      <c r="V1390" s="54"/>
-      <c r="W1390" s="54"/>
-      <c r="X1390" s="54"/>
-      <c r="Y1390" s="54"/>
-      <c r="Z1390" s="54"/>
-      <c r="AA1390" s="54"/>
-      <c r="AB1390" s="54"/>
-      <c r="AC1390" s="54"/>
-      <c r="AD1390" s="54"/>
-      <c r="AE1390" s="54"/>
-      <c r="AF1390" s="54"/>
-      <c r="AG1390" s="54"/>
-      <c r="AH1390" s="54"/>
-    </row>
-    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1502" s="54"/>
-      <c r="C1502" s="54"/>
-      <c r="D1502" s="54"/>
-      <c r="E1502" s="54"/>
-      <c r="F1502" s="54"/>
-      <c r="G1502" s="54"/>
-      <c r="H1502" s="54"/>
-      <c r="I1502" s="54"/>
-      <c r="J1502" s="54"/>
-      <c r="K1502" s="54"/>
-      <c r="L1502" s="54"/>
-      <c r="M1502" s="54"/>
-      <c r="N1502" s="54"/>
-      <c r="O1502" s="54"/>
-      <c r="P1502" s="54"/>
-      <c r="Q1502" s="54"/>
-      <c r="R1502" s="54"/>
-      <c r="S1502" s="54"/>
-      <c r="T1502" s="54"/>
-      <c r="U1502" s="54"/>
-      <c r="V1502" s="54"/>
-      <c r="W1502" s="54"/>
-      <c r="X1502" s="54"/>
-      <c r="Y1502" s="54"/>
-      <c r="Z1502" s="54"/>
-      <c r="AA1502" s="54"/>
-      <c r="AB1502" s="54"/>
-      <c r="AC1502" s="54"/>
-      <c r="AD1502" s="54"/>
-      <c r="AE1502" s="54"/>
-      <c r="AF1502" s="54"/>
-      <c r="AG1502" s="54"/>
-      <c r="AH1502" s="54"/>
-    </row>
-    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1604" s="54"/>
-      <c r="C1604" s="54"/>
-      <c r="D1604" s="54"/>
-      <c r="E1604" s="54"/>
-      <c r="F1604" s="54"/>
-      <c r="G1604" s="54"/>
-      <c r="H1604" s="54"/>
-      <c r="I1604" s="54"/>
-      <c r="J1604" s="54"/>
-      <c r="K1604" s="54"/>
-      <c r="L1604" s="54"/>
-      <c r="M1604" s="54"/>
-      <c r="N1604" s="54"/>
-      <c r="O1604" s="54"/>
-      <c r="P1604" s="54"/>
-      <c r="Q1604" s="54"/>
-      <c r="R1604" s="54"/>
-      <c r="S1604" s="54"/>
-      <c r="T1604" s="54"/>
-      <c r="U1604" s="54"/>
-      <c r="V1604" s="54"/>
-      <c r="W1604" s="54"/>
-      <c r="X1604" s="54"/>
-      <c r="Y1604" s="54"/>
-      <c r="Z1604" s="54"/>
-      <c r="AA1604" s="54"/>
-      <c r="AB1604" s="54"/>
-      <c r="AC1604" s="54"/>
-      <c r="AD1604" s="54"/>
-      <c r="AE1604" s="54"/>
-      <c r="AF1604" s="54"/>
-      <c r="AG1604" s="54"/>
-      <c r="AH1604" s="54"/>
-    </row>
-    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1698" s="54"/>
-      <c r="C1698" s="54"/>
-      <c r="D1698" s="54"/>
-      <c r="E1698" s="54"/>
-      <c r="F1698" s="54"/>
-      <c r="G1698" s="54"/>
-      <c r="H1698" s="54"/>
-      <c r="I1698" s="54"/>
-      <c r="J1698" s="54"/>
-      <c r="K1698" s="54"/>
-      <c r="L1698" s="54"/>
-      <c r="M1698" s="54"/>
-      <c r="N1698" s="54"/>
-      <c r="O1698" s="54"/>
-      <c r="P1698" s="54"/>
-      <c r="Q1698" s="54"/>
-      <c r="R1698" s="54"/>
-      <c r="S1698" s="54"/>
-      <c r="T1698" s="54"/>
-      <c r="U1698" s="54"/>
-      <c r="V1698" s="54"/>
-      <c r="W1698" s="54"/>
-      <c r="X1698" s="54"/>
-      <c r="Y1698" s="54"/>
-      <c r="Z1698" s="54"/>
-      <c r="AA1698" s="54"/>
-      <c r="AB1698" s="54"/>
-      <c r="AC1698" s="54"/>
-      <c r="AD1698" s="54"/>
-      <c r="AE1698" s="54"/>
-      <c r="AF1698" s="54"/>
-      <c r="AG1698" s="54"/>
-      <c r="AH1698" s="54"/>
-    </row>
-    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1945" s="54"/>
-      <c r="C1945" s="54"/>
-      <c r="D1945" s="54"/>
-      <c r="E1945" s="54"/>
-      <c r="F1945" s="54"/>
-      <c r="G1945" s="54"/>
-      <c r="H1945" s="54"/>
-      <c r="I1945" s="54"/>
-      <c r="J1945" s="54"/>
-      <c r="K1945" s="54"/>
-      <c r="L1945" s="54"/>
-      <c r="M1945" s="54"/>
-      <c r="N1945" s="54"/>
-      <c r="O1945" s="54"/>
-      <c r="P1945" s="54"/>
-      <c r="Q1945" s="54"/>
-      <c r="R1945" s="54"/>
-      <c r="S1945" s="54"/>
-      <c r="T1945" s="54"/>
-      <c r="U1945" s="54"/>
-      <c r="V1945" s="54"/>
-      <c r="W1945" s="54"/>
-      <c r="X1945" s="54"/>
-      <c r="Y1945" s="54"/>
-      <c r="Z1945" s="54"/>
-      <c r="AA1945" s="54"/>
-      <c r="AB1945" s="54"/>
-      <c r="AC1945" s="54"/>
-      <c r="AD1945" s="54"/>
-      <c r="AE1945" s="54"/>
-      <c r="AF1945" s="54"/>
-      <c r="AG1945" s="54"/>
-      <c r="AH1945" s="54"/>
-    </row>
-    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2031" s="54"/>
-      <c r="C2031" s="54"/>
-      <c r="D2031" s="54"/>
-      <c r="E2031" s="54"/>
-      <c r="F2031" s="54"/>
-      <c r="G2031" s="54"/>
-      <c r="H2031" s="54"/>
-      <c r="I2031" s="54"/>
-      <c r="J2031" s="54"/>
-      <c r="K2031" s="54"/>
-      <c r="L2031" s="54"/>
-      <c r="M2031" s="54"/>
-      <c r="N2031" s="54"/>
-      <c r="O2031" s="54"/>
-      <c r="P2031" s="54"/>
-      <c r="Q2031" s="54"/>
-      <c r="R2031" s="54"/>
-      <c r="S2031" s="54"/>
-      <c r="T2031" s="54"/>
-      <c r="U2031" s="54"/>
-      <c r="V2031" s="54"/>
-      <c r="W2031" s="54"/>
-      <c r="X2031" s="54"/>
-      <c r="Y2031" s="54"/>
-      <c r="Z2031" s="54"/>
-      <c r="AA2031" s="54"/>
-      <c r="AB2031" s="54"/>
-      <c r="AC2031" s="54"/>
-      <c r="AD2031" s="54"/>
-      <c r="AE2031" s="54"/>
-      <c r="AF2031" s="54"/>
-      <c r="AG2031" s="54"/>
-      <c r="AH2031" s="54"/>
-    </row>
-    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2153" s="54"/>
-      <c r="C2153" s="54"/>
-      <c r="D2153" s="54"/>
-      <c r="E2153" s="54"/>
-      <c r="F2153" s="54"/>
-      <c r="G2153" s="54"/>
-      <c r="H2153" s="54"/>
-      <c r="I2153" s="54"/>
-      <c r="J2153" s="54"/>
-      <c r="K2153" s="54"/>
-      <c r="L2153" s="54"/>
-      <c r="M2153" s="54"/>
-      <c r="N2153" s="54"/>
-      <c r="O2153" s="54"/>
-      <c r="P2153" s="54"/>
-      <c r="Q2153" s="54"/>
-      <c r="R2153" s="54"/>
-      <c r="S2153" s="54"/>
-      <c r="T2153" s="54"/>
-      <c r="U2153" s="54"/>
-      <c r="V2153" s="54"/>
-      <c r="W2153" s="54"/>
-      <c r="X2153" s="54"/>
-      <c r="Y2153" s="54"/>
-      <c r="Z2153" s="54"/>
-      <c r="AA2153" s="54"/>
-      <c r="AB2153" s="54"/>
-      <c r="AC2153" s="54"/>
-      <c r="AD2153" s="54"/>
-      <c r="AE2153" s="54"/>
-      <c r="AF2153" s="54"/>
-      <c r="AG2153" s="54"/>
-      <c r="AH2153" s="54"/>
-    </row>
-    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2317" s="54"/>
-      <c r="C2317" s="54"/>
-      <c r="D2317" s="54"/>
-      <c r="E2317" s="54"/>
-      <c r="F2317" s="54"/>
-      <c r="G2317" s="54"/>
-      <c r="H2317" s="54"/>
-      <c r="I2317" s="54"/>
-      <c r="J2317" s="54"/>
-      <c r="K2317" s="54"/>
-      <c r="L2317" s="54"/>
-      <c r="M2317" s="54"/>
-      <c r="N2317" s="54"/>
-      <c r="O2317" s="54"/>
-      <c r="P2317" s="54"/>
-      <c r="Q2317" s="54"/>
-      <c r="R2317" s="54"/>
-      <c r="S2317" s="54"/>
-      <c r="T2317" s="54"/>
-      <c r="U2317" s="54"/>
-      <c r="V2317" s="54"/>
-      <c r="W2317" s="54"/>
-      <c r="X2317" s="54"/>
-      <c r="Y2317" s="54"/>
-      <c r="Z2317" s="54"/>
-      <c r="AA2317" s="54"/>
-      <c r="AB2317" s="54"/>
-      <c r="AC2317" s="54"/>
-      <c r="AD2317" s="54"/>
-      <c r="AE2317" s="54"/>
-      <c r="AF2317" s="54"/>
-      <c r="AG2317" s="54"/>
-      <c r="AH2317" s="54"/>
-    </row>
-    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2419" s="54"/>
-      <c r="C2419" s="54"/>
-      <c r="D2419" s="54"/>
-      <c r="E2419" s="54"/>
-      <c r="F2419" s="54"/>
-      <c r="G2419" s="54"/>
-      <c r="H2419" s="54"/>
-      <c r="I2419" s="54"/>
-      <c r="J2419" s="54"/>
-      <c r="K2419" s="54"/>
-      <c r="L2419" s="54"/>
-      <c r="M2419" s="54"/>
-      <c r="N2419" s="54"/>
-      <c r="O2419" s="54"/>
-      <c r="P2419" s="54"/>
-      <c r="Q2419" s="54"/>
-      <c r="R2419" s="54"/>
-      <c r="S2419" s="54"/>
-      <c r="T2419" s="54"/>
-      <c r="U2419" s="54"/>
-      <c r="V2419" s="54"/>
-      <c r="W2419" s="54"/>
-      <c r="X2419" s="54"/>
-      <c r="Y2419" s="54"/>
-      <c r="Z2419" s="54"/>
-      <c r="AA2419" s="54"/>
-      <c r="AB2419" s="54"/>
-      <c r="AC2419" s="54"/>
-      <c r="AD2419" s="54"/>
-      <c r="AE2419" s="54"/>
-      <c r="AF2419" s="54"/>
-      <c r="AG2419" s="54"/>
-      <c r="AH2419" s="54"/>
-    </row>
-    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2509" s="54"/>
-      <c r="C2509" s="54"/>
-      <c r="D2509" s="54"/>
-      <c r="E2509" s="54"/>
-      <c r="F2509" s="54"/>
-      <c r="G2509" s="54"/>
-      <c r="H2509" s="54"/>
-      <c r="I2509" s="54"/>
-      <c r="J2509" s="54"/>
-      <c r="K2509" s="54"/>
-      <c r="L2509" s="54"/>
-      <c r="M2509" s="54"/>
-      <c r="N2509" s="54"/>
-      <c r="O2509" s="54"/>
-      <c r="P2509" s="54"/>
-      <c r="Q2509" s="54"/>
-      <c r="R2509" s="54"/>
-      <c r="S2509" s="54"/>
-      <c r="T2509" s="54"/>
-      <c r="U2509" s="54"/>
-      <c r="V2509" s="54"/>
-      <c r="W2509" s="54"/>
-      <c r="X2509" s="54"/>
-      <c r="Y2509" s="54"/>
-      <c r="Z2509" s="54"/>
-      <c r="AA2509" s="54"/>
-      <c r="AB2509" s="54"/>
-      <c r="AC2509" s="54"/>
-      <c r="AD2509" s="54"/>
-      <c r="AE2509" s="54"/>
-      <c r="AF2509" s="54"/>
-      <c r="AG2509" s="54"/>
-      <c r="AH2509" s="54"/>
-    </row>
-    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2598" s="54"/>
-      <c r="C2598" s="54"/>
-      <c r="D2598" s="54"/>
-      <c r="E2598" s="54"/>
-      <c r="F2598" s="54"/>
-      <c r="G2598" s="54"/>
-      <c r="H2598" s="54"/>
-      <c r="I2598" s="54"/>
-      <c r="J2598" s="54"/>
-      <c r="K2598" s="54"/>
-      <c r="L2598" s="54"/>
-      <c r="M2598" s="54"/>
-      <c r="N2598" s="54"/>
-      <c r="O2598" s="54"/>
-      <c r="P2598" s="54"/>
-      <c r="Q2598" s="54"/>
-      <c r="R2598" s="54"/>
-      <c r="S2598" s="54"/>
-      <c r="T2598" s="54"/>
-      <c r="U2598" s="54"/>
-      <c r="V2598" s="54"/>
-      <c r="W2598" s="54"/>
-      <c r="X2598" s="54"/>
-      <c r="Y2598" s="54"/>
-      <c r="Z2598" s="54"/>
-      <c r="AA2598" s="54"/>
-      <c r="AB2598" s="54"/>
-      <c r="AC2598" s="54"/>
-      <c r="AD2598" s="54"/>
-      <c r="AE2598" s="54"/>
-      <c r="AF2598" s="54"/>
-      <c r="AG2598" s="54"/>
-      <c r="AH2598" s="54"/>
-    </row>
-    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2719" s="54"/>
-      <c r="C2719" s="54"/>
-      <c r="D2719" s="54"/>
-      <c r="E2719" s="54"/>
-      <c r="F2719" s="54"/>
-      <c r="G2719" s="54"/>
-      <c r="H2719" s="54"/>
-      <c r="I2719" s="54"/>
-      <c r="J2719" s="54"/>
-      <c r="K2719" s="54"/>
-      <c r="L2719" s="54"/>
-      <c r="M2719" s="54"/>
-      <c r="N2719" s="54"/>
-      <c r="O2719" s="54"/>
-      <c r="P2719" s="54"/>
-      <c r="Q2719" s="54"/>
-      <c r="R2719" s="54"/>
-      <c r="S2719" s="54"/>
-      <c r="T2719" s="54"/>
-      <c r="U2719" s="54"/>
-      <c r="V2719" s="54"/>
-      <c r="W2719" s="54"/>
-      <c r="X2719" s="54"/>
-      <c r="Y2719" s="54"/>
-      <c r="Z2719" s="54"/>
-      <c r="AA2719" s="54"/>
-      <c r="AB2719" s="54"/>
-      <c r="AC2719" s="54"/>
-      <c r="AD2719" s="54"/>
-      <c r="AE2719" s="54"/>
-      <c r="AF2719" s="54"/>
-      <c r="AG2719" s="54"/>
-      <c r="AH2719" s="54"/>
-    </row>
-    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2837" s="54"/>
-      <c r="C2837" s="54"/>
-      <c r="D2837" s="54"/>
-      <c r="E2837" s="54"/>
-      <c r="F2837" s="54"/>
-      <c r="G2837" s="54"/>
-      <c r="H2837" s="54"/>
-      <c r="I2837" s="54"/>
-      <c r="J2837" s="54"/>
-      <c r="K2837" s="54"/>
-      <c r="L2837" s="54"/>
-      <c r="M2837" s="54"/>
-      <c r="N2837" s="54"/>
-      <c r="O2837" s="54"/>
-      <c r="P2837" s="54"/>
-      <c r="Q2837" s="54"/>
-      <c r="R2837" s="54"/>
-      <c r="S2837" s="54"/>
-      <c r="T2837" s="54"/>
-      <c r="U2837" s="54"/>
-      <c r="V2837" s="54"/>
-      <c r="W2837" s="54"/>
-      <c r="X2837" s="54"/>
-      <c r="Y2837" s="54"/>
-      <c r="Z2837" s="54"/>
-      <c r="AA2837" s="54"/>
-      <c r="AB2837" s="54"/>
-      <c r="AC2837" s="54"/>
-      <c r="AD2837" s="54"/>
-      <c r="AE2837" s="54"/>
-      <c r="AF2837" s="54"/>
-      <c r="AG2837" s="54"/>
-      <c r="AH2837" s="54"/>
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="55"/>
+      <c r="C308" s="55"/>
+      <c r="D308" s="55"/>
+      <c r="E308" s="55"/>
+      <c r="F308" s="55"/>
+      <c r="G308" s="55"/>
+      <c r="H308" s="55"/>
+      <c r="I308" s="55"/>
+      <c r="J308" s="55"/>
+      <c r="K308" s="55"/>
+      <c r="L308" s="55"/>
+      <c r="M308" s="55"/>
+      <c r="N308" s="55"/>
+      <c r="O308" s="55"/>
+      <c r="P308" s="55"/>
+      <c r="Q308" s="55"/>
+      <c r="R308" s="55"/>
+      <c r="S308" s="55"/>
+      <c r="T308" s="55"/>
+      <c r="U308" s="55"/>
+      <c r="V308" s="55"/>
+      <c r="W308" s="55"/>
+      <c r="X308" s="55"/>
+      <c r="Y308" s="55"/>
+      <c r="Z308" s="55"/>
+      <c r="AA308" s="55"/>
+      <c r="AB308" s="55"/>
+      <c r="AC308" s="55"/>
+      <c r="AD308" s="55"/>
+      <c r="AE308" s="55"/>
+      <c r="AF308" s="55"/>
+      <c r="AG308" s="55"/>
+      <c r="AH308" s="55"/>
+    </row>
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="55"/>
+      <c r="C511" s="55"/>
+      <c r="D511" s="55"/>
+      <c r="E511" s="55"/>
+      <c r="F511" s="55"/>
+      <c r="G511" s="55"/>
+      <c r="H511" s="55"/>
+      <c r="I511" s="55"/>
+      <c r="J511" s="55"/>
+      <c r="K511" s="55"/>
+      <c r="L511" s="55"/>
+      <c r="M511" s="55"/>
+      <c r="N511" s="55"/>
+      <c r="O511" s="55"/>
+      <c r="P511" s="55"/>
+      <c r="Q511" s="55"/>
+      <c r="R511" s="55"/>
+      <c r="S511" s="55"/>
+      <c r="T511" s="55"/>
+      <c r="U511" s="55"/>
+      <c r="V511" s="55"/>
+      <c r="W511" s="55"/>
+      <c r="X511" s="55"/>
+      <c r="Y511" s="55"/>
+      <c r="Z511" s="55"/>
+      <c r="AA511" s="55"/>
+      <c r="AB511" s="55"/>
+      <c r="AC511" s="55"/>
+      <c r="AD511" s="55"/>
+      <c r="AE511" s="55"/>
+      <c r="AF511" s="55"/>
+      <c r="AG511" s="55"/>
+      <c r="AH511" s="55"/>
+    </row>
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="55"/>
+      <c r="C712" s="55"/>
+      <c r="D712" s="55"/>
+      <c r="E712" s="55"/>
+      <c r="F712" s="55"/>
+      <c r="G712" s="55"/>
+      <c r="H712" s="55"/>
+      <c r="I712" s="55"/>
+      <c r="J712" s="55"/>
+      <c r="K712" s="55"/>
+      <c r="L712" s="55"/>
+      <c r="M712" s="55"/>
+      <c r="N712" s="55"/>
+      <c r="O712" s="55"/>
+      <c r="P712" s="55"/>
+      <c r="Q712" s="55"/>
+      <c r="R712" s="55"/>
+      <c r="S712" s="55"/>
+      <c r="T712" s="55"/>
+      <c r="U712" s="55"/>
+      <c r="V712" s="55"/>
+      <c r="W712" s="55"/>
+      <c r="X712" s="55"/>
+      <c r="Y712" s="55"/>
+      <c r="Z712" s="55"/>
+      <c r="AA712" s="55"/>
+      <c r="AB712" s="55"/>
+      <c r="AC712" s="55"/>
+      <c r="AD712" s="55"/>
+      <c r="AE712" s="55"/>
+      <c r="AF712" s="55"/>
+      <c r="AG712" s="55"/>
+      <c r="AH712" s="55"/>
+    </row>
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="55"/>
+      <c r="C887" s="55"/>
+      <c r="D887" s="55"/>
+      <c r="E887" s="55"/>
+      <c r="F887" s="55"/>
+      <c r="G887" s="55"/>
+      <c r="H887" s="55"/>
+      <c r="I887" s="55"/>
+      <c r="J887" s="55"/>
+      <c r="K887" s="55"/>
+      <c r="L887" s="55"/>
+      <c r="M887" s="55"/>
+      <c r="N887" s="55"/>
+      <c r="O887" s="55"/>
+      <c r="P887" s="55"/>
+      <c r="Q887" s="55"/>
+      <c r="R887" s="55"/>
+      <c r="S887" s="55"/>
+      <c r="T887" s="55"/>
+      <c r="U887" s="55"/>
+      <c r="V887" s="55"/>
+      <c r="W887" s="55"/>
+      <c r="X887" s="55"/>
+      <c r="Y887" s="55"/>
+      <c r="Z887" s="55"/>
+      <c r="AA887" s="55"/>
+      <c r="AB887" s="55"/>
+      <c r="AC887" s="55"/>
+      <c r="AD887" s="55"/>
+      <c r="AE887" s="55"/>
+      <c r="AF887" s="55"/>
+      <c r="AG887" s="55"/>
+      <c r="AH887" s="55"/>
+    </row>
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1100" s="55"/>
+      <c r="C1100" s="55"/>
+      <c r="D1100" s="55"/>
+      <c r="E1100" s="55"/>
+      <c r="F1100" s="55"/>
+      <c r="G1100" s="55"/>
+      <c r="H1100" s="55"/>
+      <c r="I1100" s="55"/>
+      <c r="J1100" s="55"/>
+      <c r="K1100" s="55"/>
+      <c r="L1100" s="55"/>
+      <c r="M1100" s="55"/>
+      <c r="N1100" s="55"/>
+      <c r="O1100" s="55"/>
+      <c r="P1100" s="55"/>
+      <c r="Q1100" s="55"/>
+      <c r="R1100" s="55"/>
+      <c r="S1100" s="55"/>
+      <c r="T1100" s="55"/>
+      <c r="U1100" s="55"/>
+      <c r="V1100" s="55"/>
+      <c r="W1100" s="55"/>
+      <c r="X1100" s="55"/>
+      <c r="Y1100" s="55"/>
+      <c r="Z1100" s="55"/>
+      <c r="AA1100" s="55"/>
+      <c r="AB1100" s="55"/>
+      <c r="AC1100" s="55"/>
+      <c r="AD1100" s="55"/>
+      <c r="AE1100" s="55"/>
+      <c r="AF1100" s="55"/>
+      <c r="AG1100" s="55"/>
+      <c r="AH1100" s="55"/>
+    </row>
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1227" s="55"/>
+      <c r="C1227" s="55"/>
+      <c r="D1227" s="55"/>
+      <c r="E1227" s="55"/>
+      <c r="F1227" s="55"/>
+      <c r="G1227" s="55"/>
+      <c r="H1227" s="55"/>
+      <c r="I1227" s="55"/>
+      <c r="J1227" s="55"/>
+      <c r="K1227" s="55"/>
+      <c r="L1227" s="55"/>
+      <c r="M1227" s="55"/>
+      <c r="N1227" s="55"/>
+      <c r="O1227" s="55"/>
+      <c r="P1227" s="55"/>
+      <c r="Q1227" s="55"/>
+      <c r="R1227" s="55"/>
+      <c r="S1227" s="55"/>
+      <c r="T1227" s="55"/>
+      <c r="U1227" s="55"/>
+      <c r="V1227" s="55"/>
+      <c r="W1227" s="55"/>
+      <c r="X1227" s="55"/>
+      <c r="Y1227" s="55"/>
+      <c r="Z1227" s="55"/>
+      <c r="AA1227" s="55"/>
+      <c r="AB1227" s="55"/>
+      <c r="AC1227" s="55"/>
+      <c r="AD1227" s="55"/>
+      <c r="AE1227" s="55"/>
+      <c r="AF1227" s="55"/>
+      <c r="AG1227" s="55"/>
+      <c r="AH1227" s="55"/>
+    </row>
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1390" s="55"/>
+      <c r="C1390" s="55"/>
+      <c r="D1390" s="55"/>
+      <c r="E1390" s="55"/>
+      <c r="F1390" s="55"/>
+      <c r="G1390" s="55"/>
+      <c r="H1390" s="55"/>
+      <c r="I1390" s="55"/>
+      <c r="J1390" s="55"/>
+      <c r="K1390" s="55"/>
+      <c r="L1390" s="55"/>
+      <c r="M1390" s="55"/>
+      <c r="N1390" s="55"/>
+      <c r="O1390" s="55"/>
+      <c r="P1390" s="55"/>
+      <c r="Q1390" s="55"/>
+      <c r="R1390" s="55"/>
+      <c r="S1390" s="55"/>
+      <c r="T1390" s="55"/>
+      <c r="U1390" s="55"/>
+      <c r="V1390" s="55"/>
+      <c r="W1390" s="55"/>
+      <c r="X1390" s="55"/>
+      <c r="Y1390" s="55"/>
+      <c r="Z1390" s="55"/>
+      <c r="AA1390" s="55"/>
+      <c r="AB1390" s="55"/>
+      <c r="AC1390" s="55"/>
+      <c r="AD1390" s="55"/>
+      <c r="AE1390" s="55"/>
+      <c r="AF1390" s="55"/>
+      <c r="AG1390" s="55"/>
+      <c r="AH1390" s="55"/>
+    </row>
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1502" s="55"/>
+      <c r="C1502" s="55"/>
+      <c r="D1502" s="55"/>
+      <c r="E1502" s="55"/>
+      <c r="F1502" s="55"/>
+      <c r="G1502" s="55"/>
+      <c r="H1502" s="55"/>
+      <c r="I1502" s="55"/>
+      <c r="J1502" s="55"/>
+      <c r="K1502" s="55"/>
+      <c r="L1502" s="55"/>
+      <c r="M1502" s="55"/>
+      <c r="N1502" s="55"/>
+      <c r="O1502" s="55"/>
+      <c r="P1502" s="55"/>
+      <c r="Q1502" s="55"/>
+      <c r="R1502" s="55"/>
+      <c r="S1502" s="55"/>
+      <c r="T1502" s="55"/>
+      <c r="U1502" s="55"/>
+      <c r="V1502" s="55"/>
+      <c r="W1502" s="55"/>
+      <c r="X1502" s="55"/>
+      <c r="Y1502" s="55"/>
+      <c r="Z1502" s="55"/>
+      <c r="AA1502" s="55"/>
+      <c r="AB1502" s="55"/>
+      <c r="AC1502" s="55"/>
+      <c r="AD1502" s="55"/>
+      <c r="AE1502" s="55"/>
+      <c r="AF1502" s="55"/>
+      <c r="AG1502" s="55"/>
+      <c r="AH1502" s="55"/>
+    </row>
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1604" s="55"/>
+      <c r="C1604" s="55"/>
+      <c r="D1604" s="55"/>
+      <c r="E1604" s="55"/>
+      <c r="F1604" s="55"/>
+      <c r="G1604" s="55"/>
+      <c r="H1604" s="55"/>
+      <c r="I1604" s="55"/>
+      <c r="J1604" s="55"/>
+      <c r="K1604" s="55"/>
+      <c r="L1604" s="55"/>
+      <c r="M1604" s="55"/>
+      <c r="N1604" s="55"/>
+      <c r="O1604" s="55"/>
+      <c r="P1604" s="55"/>
+      <c r="Q1604" s="55"/>
+      <c r="R1604" s="55"/>
+      <c r="S1604" s="55"/>
+      <c r="T1604" s="55"/>
+      <c r="U1604" s="55"/>
+      <c r="V1604" s="55"/>
+      <c r="W1604" s="55"/>
+      <c r="X1604" s="55"/>
+      <c r="Y1604" s="55"/>
+      <c r="Z1604" s="55"/>
+      <c r="AA1604" s="55"/>
+      <c r="AB1604" s="55"/>
+      <c r="AC1604" s="55"/>
+      <c r="AD1604" s="55"/>
+      <c r="AE1604" s="55"/>
+      <c r="AF1604" s="55"/>
+      <c r="AG1604" s="55"/>
+      <c r="AH1604" s="55"/>
+    </row>
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1698" s="55"/>
+      <c r="C1698" s="55"/>
+      <c r="D1698" s="55"/>
+      <c r="E1698" s="55"/>
+      <c r="F1698" s="55"/>
+      <c r="G1698" s="55"/>
+      <c r="H1698" s="55"/>
+      <c r="I1698" s="55"/>
+      <c r="J1698" s="55"/>
+      <c r="K1698" s="55"/>
+      <c r="L1698" s="55"/>
+      <c r="M1698" s="55"/>
+      <c r="N1698" s="55"/>
+      <c r="O1698" s="55"/>
+      <c r="P1698" s="55"/>
+      <c r="Q1698" s="55"/>
+      <c r="R1698" s="55"/>
+      <c r="S1698" s="55"/>
+      <c r="T1698" s="55"/>
+      <c r="U1698" s="55"/>
+      <c r="V1698" s="55"/>
+      <c r="W1698" s="55"/>
+      <c r="X1698" s="55"/>
+      <c r="Y1698" s="55"/>
+      <c r="Z1698" s="55"/>
+      <c r="AA1698" s="55"/>
+      <c r="AB1698" s="55"/>
+      <c r="AC1698" s="55"/>
+      <c r="AD1698" s="55"/>
+      <c r="AE1698" s="55"/>
+      <c r="AF1698" s="55"/>
+      <c r="AG1698" s="55"/>
+      <c r="AH1698" s="55"/>
+    </row>
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1945" s="55"/>
+      <c r="C1945" s="55"/>
+      <c r="D1945" s="55"/>
+      <c r="E1945" s="55"/>
+      <c r="F1945" s="55"/>
+      <c r="G1945" s="55"/>
+      <c r="H1945" s="55"/>
+      <c r="I1945" s="55"/>
+      <c r="J1945" s="55"/>
+      <c r="K1945" s="55"/>
+      <c r="L1945" s="55"/>
+      <c r="M1945" s="55"/>
+      <c r="N1945" s="55"/>
+      <c r="O1945" s="55"/>
+      <c r="P1945" s="55"/>
+      <c r="Q1945" s="55"/>
+      <c r="R1945" s="55"/>
+      <c r="S1945" s="55"/>
+      <c r="T1945" s="55"/>
+      <c r="U1945" s="55"/>
+      <c r="V1945" s="55"/>
+      <c r="W1945" s="55"/>
+      <c r="X1945" s="55"/>
+      <c r="Y1945" s="55"/>
+      <c r="Z1945" s="55"/>
+      <c r="AA1945" s="55"/>
+      <c r="AB1945" s="55"/>
+      <c r="AC1945" s="55"/>
+      <c r="AD1945" s="55"/>
+      <c r="AE1945" s="55"/>
+      <c r="AF1945" s="55"/>
+      <c r="AG1945" s="55"/>
+      <c r="AH1945" s="55"/>
+    </row>
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2031" s="55"/>
+      <c r="C2031" s="55"/>
+      <c r="D2031" s="55"/>
+      <c r="E2031" s="55"/>
+      <c r="F2031" s="55"/>
+      <c r="G2031" s="55"/>
+      <c r="H2031" s="55"/>
+      <c r="I2031" s="55"/>
+      <c r="J2031" s="55"/>
+      <c r="K2031" s="55"/>
+      <c r="L2031" s="55"/>
+      <c r="M2031" s="55"/>
+      <c r="N2031" s="55"/>
+      <c r="O2031" s="55"/>
+      <c r="P2031" s="55"/>
+      <c r="Q2031" s="55"/>
+      <c r="R2031" s="55"/>
+      <c r="S2031" s="55"/>
+      <c r="T2031" s="55"/>
+      <c r="U2031" s="55"/>
+      <c r="V2031" s="55"/>
+      <c r="W2031" s="55"/>
+      <c r="X2031" s="55"/>
+      <c r="Y2031" s="55"/>
+      <c r="Z2031" s="55"/>
+      <c r="AA2031" s="55"/>
+      <c r="AB2031" s="55"/>
+      <c r="AC2031" s="55"/>
+      <c r="AD2031" s="55"/>
+      <c r="AE2031" s="55"/>
+      <c r="AF2031" s="55"/>
+      <c r="AG2031" s="55"/>
+      <c r="AH2031" s="55"/>
+    </row>
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2153" s="55"/>
+      <c r="C2153" s="55"/>
+      <c r="D2153" s="55"/>
+      <c r="E2153" s="55"/>
+      <c r="F2153" s="55"/>
+      <c r="G2153" s="55"/>
+      <c r="H2153" s="55"/>
+      <c r="I2153" s="55"/>
+      <c r="J2153" s="55"/>
+      <c r="K2153" s="55"/>
+      <c r="L2153" s="55"/>
+      <c r="M2153" s="55"/>
+      <c r="N2153" s="55"/>
+      <c r="O2153" s="55"/>
+      <c r="P2153" s="55"/>
+      <c r="Q2153" s="55"/>
+      <c r="R2153" s="55"/>
+      <c r="S2153" s="55"/>
+      <c r="T2153" s="55"/>
+      <c r="U2153" s="55"/>
+      <c r="V2153" s="55"/>
+      <c r="W2153" s="55"/>
+      <c r="X2153" s="55"/>
+      <c r="Y2153" s="55"/>
+      <c r="Z2153" s="55"/>
+      <c r="AA2153" s="55"/>
+      <c r="AB2153" s="55"/>
+      <c r="AC2153" s="55"/>
+      <c r="AD2153" s="55"/>
+      <c r="AE2153" s="55"/>
+      <c r="AF2153" s="55"/>
+      <c r="AG2153" s="55"/>
+      <c r="AH2153" s="55"/>
+    </row>
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2317" s="55"/>
+      <c r="C2317" s="55"/>
+      <c r="D2317" s="55"/>
+      <c r="E2317" s="55"/>
+      <c r="F2317" s="55"/>
+      <c r="G2317" s="55"/>
+      <c r="H2317" s="55"/>
+      <c r="I2317" s="55"/>
+      <c r="J2317" s="55"/>
+      <c r="K2317" s="55"/>
+      <c r="L2317" s="55"/>
+      <c r="M2317" s="55"/>
+      <c r="N2317" s="55"/>
+      <c r="O2317" s="55"/>
+      <c r="P2317" s="55"/>
+      <c r="Q2317" s="55"/>
+      <c r="R2317" s="55"/>
+      <c r="S2317" s="55"/>
+      <c r="T2317" s="55"/>
+      <c r="U2317" s="55"/>
+      <c r="V2317" s="55"/>
+      <c r="W2317" s="55"/>
+      <c r="X2317" s="55"/>
+      <c r="Y2317" s="55"/>
+      <c r="Z2317" s="55"/>
+      <c r="AA2317" s="55"/>
+      <c r="AB2317" s="55"/>
+      <c r="AC2317" s="55"/>
+      <c r="AD2317" s="55"/>
+      <c r="AE2317" s="55"/>
+      <c r="AF2317" s="55"/>
+      <c r="AG2317" s="55"/>
+      <c r="AH2317" s="55"/>
+    </row>
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2419" s="55"/>
+      <c r="C2419" s="55"/>
+      <c r="D2419" s="55"/>
+      <c r="E2419" s="55"/>
+      <c r="F2419" s="55"/>
+      <c r="G2419" s="55"/>
+      <c r="H2419" s="55"/>
+      <c r="I2419" s="55"/>
+      <c r="J2419" s="55"/>
+      <c r="K2419" s="55"/>
+      <c r="L2419" s="55"/>
+      <c r="M2419" s="55"/>
+      <c r="N2419" s="55"/>
+      <c r="O2419" s="55"/>
+      <c r="P2419" s="55"/>
+      <c r="Q2419" s="55"/>
+      <c r="R2419" s="55"/>
+      <c r="S2419" s="55"/>
+      <c r="T2419" s="55"/>
+      <c r="U2419" s="55"/>
+      <c r="V2419" s="55"/>
+      <c r="W2419" s="55"/>
+      <c r="X2419" s="55"/>
+      <c r="Y2419" s="55"/>
+      <c r="Z2419" s="55"/>
+      <c r="AA2419" s="55"/>
+      <c r="AB2419" s="55"/>
+      <c r="AC2419" s="55"/>
+      <c r="AD2419" s="55"/>
+      <c r="AE2419" s="55"/>
+      <c r="AF2419" s="55"/>
+      <c r="AG2419" s="55"/>
+      <c r="AH2419" s="55"/>
+    </row>
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2509" s="55"/>
+      <c r="C2509" s="55"/>
+      <c r="D2509" s="55"/>
+      <c r="E2509" s="55"/>
+      <c r="F2509" s="55"/>
+      <c r="G2509" s="55"/>
+      <c r="H2509" s="55"/>
+      <c r="I2509" s="55"/>
+      <c r="J2509" s="55"/>
+      <c r="K2509" s="55"/>
+      <c r="L2509" s="55"/>
+      <c r="M2509" s="55"/>
+      <c r="N2509" s="55"/>
+      <c r="O2509" s="55"/>
+      <c r="P2509" s="55"/>
+      <c r="Q2509" s="55"/>
+      <c r="R2509" s="55"/>
+      <c r="S2509" s="55"/>
+      <c r="T2509" s="55"/>
+      <c r="U2509" s="55"/>
+      <c r="V2509" s="55"/>
+      <c r="W2509" s="55"/>
+      <c r="X2509" s="55"/>
+      <c r="Y2509" s="55"/>
+      <c r="Z2509" s="55"/>
+      <c r="AA2509" s="55"/>
+      <c r="AB2509" s="55"/>
+      <c r="AC2509" s="55"/>
+      <c r="AD2509" s="55"/>
+      <c r="AE2509" s="55"/>
+      <c r="AF2509" s="55"/>
+      <c r="AG2509" s="55"/>
+      <c r="AH2509" s="55"/>
+    </row>
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2598" s="55"/>
+      <c r="C2598" s="55"/>
+      <c r="D2598" s="55"/>
+      <c r="E2598" s="55"/>
+      <c r="F2598" s="55"/>
+      <c r="G2598" s="55"/>
+      <c r="H2598" s="55"/>
+      <c r="I2598" s="55"/>
+      <c r="J2598" s="55"/>
+      <c r="K2598" s="55"/>
+      <c r="L2598" s="55"/>
+      <c r="M2598" s="55"/>
+      <c r="N2598" s="55"/>
+      <c r="O2598" s="55"/>
+      <c r="P2598" s="55"/>
+      <c r="Q2598" s="55"/>
+      <c r="R2598" s="55"/>
+      <c r="S2598" s="55"/>
+      <c r="T2598" s="55"/>
+      <c r="U2598" s="55"/>
+      <c r="V2598" s="55"/>
+      <c r="W2598" s="55"/>
+      <c r="X2598" s="55"/>
+      <c r="Y2598" s="55"/>
+      <c r="Z2598" s="55"/>
+      <c r="AA2598" s="55"/>
+      <c r="AB2598" s="55"/>
+      <c r="AC2598" s="55"/>
+      <c r="AD2598" s="55"/>
+      <c r="AE2598" s="55"/>
+      <c r="AF2598" s="55"/>
+      <c r="AG2598" s="55"/>
+      <c r="AH2598" s="55"/>
+    </row>
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2719" s="55"/>
+      <c r="C2719" s="55"/>
+      <c r="D2719" s="55"/>
+      <c r="E2719" s="55"/>
+      <c r="F2719" s="55"/>
+      <c r="G2719" s="55"/>
+      <c r="H2719" s="55"/>
+      <c r="I2719" s="55"/>
+      <c r="J2719" s="55"/>
+      <c r="K2719" s="55"/>
+      <c r="L2719" s="55"/>
+      <c r="M2719" s="55"/>
+      <c r="N2719" s="55"/>
+      <c r="O2719" s="55"/>
+      <c r="P2719" s="55"/>
+      <c r="Q2719" s="55"/>
+      <c r="R2719" s="55"/>
+      <c r="S2719" s="55"/>
+      <c r="T2719" s="55"/>
+      <c r="U2719" s="55"/>
+      <c r="V2719" s="55"/>
+      <c r="W2719" s="55"/>
+      <c r="X2719" s="55"/>
+      <c r="Y2719" s="55"/>
+      <c r="Z2719" s="55"/>
+      <c r="AA2719" s="55"/>
+      <c r="AB2719" s="55"/>
+      <c r="AC2719" s="55"/>
+      <c r="AD2719" s="55"/>
+      <c r="AE2719" s="55"/>
+      <c r="AF2719" s="55"/>
+      <c r="AG2719" s="55"/>
+      <c r="AH2719" s="55"/>
+    </row>
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2837" s="55"/>
+      <c r="C2837" s="55"/>
+      <c r="D2837" s="55"/>
+      <c r="E2837" s="55"/>
+      <c r="F2837" s="55"/>
+      <c r="G2837" s="55"/>
+      <c r="H2837" s="55"/>
+      <c r="I2837" s="55"/>
+      <c r="J2837" s="55"/>
+      <c r="K2837" s="55"/>
+      <c r="L2837" s="55"/>
+      <c r="M2837" s="55"/>
+      <c r="N2837" s="55"/>
+      <c r="O2837" s="55"/>
+      <c r="P2837" s="55"/>
+      <c r="Q2837" s="55"/>
+      <c r="R2837" s="55"/>
+      <c r="S2837" s="55"/>
+      <c r="T2837" s="55"/>
+      <c r="U2837" s="55"/>
+      <c r="V2837" s="55"/>
+      <c r="W2837" s="55"/>
+      <c r="X2837" s="55"/>
+      <c r="Y2837" s="55"/>
+      <c r="Z2837" s="55"/>
+      <c r="AA2837" s="55"/>
+      <c r="AB2837" s="55"/>
+      <c r="AC2837" s="55"/>
+      <c r="AD2837" s="55"/>
+      <c r="AE2837" s="55"/>
+      <c r="AF2837" s="55"/>
+      <c r="AG2837" s="55"/>
+      <c r="AH2837" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14056,13 +14088,13 @@
       <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="s">
         <v>318</v>
       </c>
@@ -14160,8 +14192,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>43</v>
       </c>
@@ -14173,7 +14205,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
         <v>44</v>
       </c>
@@ -14187,7 +14219,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>46</v>
       </c>
@@ -14199,7 +14231,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="20" t="s">
         <v>47</v>
       </c>
@@ -14211,7 +14243,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -14219,7 +14251,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>204</v>
       </c>
@@ -14230,7 +14262,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
@@ -14238,7 +14270,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14275,7 +14307,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
@@ -14376,18 +14408,18 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>207</v>
       </c>
@@ -14491,7 +14523,7 @@
         <v>9.5409999999999991E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>209</v>
       </c>
@@ -14595,121 +14627,121 @@
         <v>9.9399999999999992E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>211</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="39">
         <v>93.582397</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="39">
         <v>94.523658999999995</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="39">
         <v>95.346710000000002</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="39">
         <v>96.302993999999998</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="39">
         <v>97.337845000000002</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="39">
         <v>98.385131999999999</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="39">
         <v>99.418007000000003</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="39">
         <v>100.435867</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="39">
         <v>101.440735</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="39">
         <v>102.432587</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="39">
         <v>103.426018</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="39">
         <v>104.436516</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="39">
         <v>105.47370100000001</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="39">
         <v>106.52668799999999</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="39">
         <v>107.58678399999999</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="39">
         <v>108.643562</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="39">
         <v>109.68611900000001</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="39">
         <v>110.70533</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="39">
         <v>111.715248</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="39">
         <v>112.72905</v>
       </c>
-      <c r="W20" s="38">
+      <c r="W20" s="39">
         <v>113.76078800000001</v>
       </c>
-      <c r="X20" s="38">
+      <c r="X20" s="39">
         <v>114.80397000000001</v>
       </c>
-      <c r="Y20" s="38">
+      <c r="Y20" s="39">
         <v>115.85629299999999</v>
       </c>
-      <c r="Z20" s="38">
+      <c r="Z20" s="39">
         <v>116.915871</v>
       </c>
-      <c r="AA20" s="38">
+      <c r="AA20" s="39">
         <v>117.977081</v>
       </c>
-      <c r="AB20" s="38">
+      <c r="AB20" s="39">
         <v>119.05152099999999</v>
       </c>
-      <c r="AC20" s="38">
+      <c r="AC20" s="39">
         <v>120.132271</v>
       </c>
-      <c r="AD20" s="38">
+      <c r="AD20" s="39">
         <v>121.20697</v>
       </c>
-      <c r="AE20" s="38">
+      <c r="AE20" s="39">
         <v>122.28743</v>
       </c>
-      <c r="AF20" s="38">
+      <c r="AF20" s="39">
         <v>123.37091100000001</v>
       </c>
-      <c r="AG20" s="38">
+      <c r="AG20" s="39">
         <v>124.454002</v>
       </c>
       <c r="AH20" s="30">
         <v>9.5479999999999992E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>213</v>
       </c>
@@ -14813,7 +14845,7 @@
         <v>-2.2070000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>215</v>
       </c>
@@ -14917,17 +14949,17 @@
         <v>-2.64E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>216</v>
       </c>
@@ -15031,7 +15063,7 @@
         <v>-1.0041E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>217</v>
       </c>
@@ -15135,7 +15167,7 @@
         <v>9.8639999999999995E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>218</v>
       </c>
@@ -15239,7 +15271,7 @@
         <v>-9.6200000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>219</v>
       </c>
@@ -15343,7 +15375,7 @@
         <v>-6.9179999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>221</v>
       </c>
@@ -15447,7 +15479,7 @@
         <v>-2.8159999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>222</v>
       </c>
@@ -15551,7 +15583,7 @@
         <v>-1.3917000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>223</v>
       </c>
@@ -15655,7 +15687,7 @@
         <v>2.696E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>224</v>
       </c>
@@ -15759,7 +15791,7 @@
         <v>2.2929999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>226</v>
       </c>
@@ -15863,7 +15895,7 @@
         <v>2.4781999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>228</v>
       </c>
@@ -15967,7 +15999,7 @@
         <v>2.1916999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>383</v>
       </c>
@@ -16071,7 +16103,7 @@
         <v>9.8980000000000005E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>384</v>
       </c>
@@ -16175,7 +16207,7 @@
         <v>3.4981999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>385</v>
       </c>
@@ -16279,12 +16311,12 @@
         <v>9.1400000000000006E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B43" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>229</v>
       </c>
@@ -16388,7 +16420,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>230</v>
       </c>
@@ -16492,7 +16524,7 @@
         <v>-4.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>231</v>
       </c>
@@ -16596,7 +16628,7 @@
         <v>5.8240000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>232</v>
       </c>
@@ -16700,7 +16732,7 @@
         <v>1.1350000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>233</v>
       </c>
@@ -16804,7 +16836,7 @@
         <v>1.2897E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>235</v>
       </c>
@@ -16908,12 +16940,12 @@
         <v>4.875E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>237</v>
       </c>
@@ -17017,7 +17049,7 @@
         <v>-7.8720000000000005E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>238</v>
       </c>
@@ -17121,7 +17153,7 @@
         <v>-4.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>239</v>
       </c>
@@ -17225,7 +17257,7 @@
         <v>8.5550000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>240</v>
       </c>
@@ -17329,7 +17361,7 @@
         <v>-2.379E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>241</v>
       </c>
@@ -17433,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>243</v>
       </c>
@@ -17537,12 +17569,12 @@
         <v>6.2649999999999997E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="25" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>244</v>
       </c>
@@ -17646,7 +17678,7 @@
         <v>-1.083E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>245</v>
       </c>
@@ -17750,111 +17782,111 @@
         <v>9.2820000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="49" t="s">
+    <row r="63" spans="1:34" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="52">
         <v>0.64426799999999995</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="52">
         <v>0.64257699999999995</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="52">
         <v>0.641509</v>
       </c>
-      <c r="F63" s="51">
+      <c r="F63" s="52">
         <v>0.64612700000000001</v>
       </c>
-      <c r="G63" s="51">
+      <c r="G63" s="52">
         <v>0.65510500000000005</v>
       </c>
-      <c r="H63" s="51">
+      <c r="H63" s="52">
         <v>0.66229199999999999</v>
       </c>
-      <c r="I63" s="51">
+      <c r="I63" s="52">
         <v>0.66683899999999996</v>
       </c>
-      <c r="J63" s="51">
+      <c r="J63" s="52">
         <v>0.66959100000000005</v>
       </c>
-      <c r="K63" s="51">
+      <c r="K63" s="52">
         <v>0.67210499999999995</v>
       </c>
-      <c r="L63" s="51">
+      <c r="L63" s="52">
         <v>0.67374800000000001</v>
       </c>
-      <c r="M63" s="51">
+      <c r="M63" s="52">
         <v>0.67294600000000004</v>
       </c>
-      <c r="N63" s="51">
+      <c r="N63" s="52">
         <v>0.67375200000000002</v>
       </c>
-      <c r="O63" s="51">
+      <c r="O63" s="52">
         <v>0.67605800000000005</v>
       </c>
-      <c r="P63" s="51">
+      <c r="P63" s="52">
         <v>0.67913500000000004</v>
       </c>
-      <c r="Q63" s="51">
+      <c r="Q63" s="52">
         <v>0.68264199999999997</v>
       </c>
-      <c r="R63" s="51">
+      <c r="R63" s="52">
         <v>0.68672699999999998</v>
       </c>
-      <c r="S63" s="51">
+      <c r="S63" s="52">
         <v>0.69102600000000003</v>
       </c>
-      <c r="T63" s="51">
+      <c r="T63" s="52">
         <v>0.69512700000000005</v>
       </c>
-      <c r="U63" s="51">
+      <c r="U63" s="52">
         <v>0.69935199999999997</v>
       </c>
-      <c r="V63" s="51">
+      <c r="V63" s="52">
         <v>0.70380799999999999</v>
       </c>
-      <c r="W63" s="51">
+      <c r="W63" s="52">
         <v>0.70833400000000002</v>
       </c>
-      <c r="X63" s="51">
+      <c r="X63" s="52">
         <v>0.71299699999999999</v>
       </c>
-      <c r="Y63" s="51">
+      <c r="Y63" s="52">
         <v>0.71738599999999997</v>
       </c>
-      <c r="Z63" s="51">
+      <c r="Z63" s="52">
         <v>0.72174499999999997</v>
       </c>
-      <c r="AA63" s="51">
+      <c r="AA63" s="52">
         <v>0.72599400000000003</v>
       </c>
-      <c r="AB63" s="51">
+      <c r="AB63" s="52">
         <v>0.73025600000000002</v>
       </c>
-      <c r="AC63" s="51">
+      <c r="AC63" s="52">
         <v>0.73468699999999998</v>
       </c>
-      <c r="AD63" s="51">
+      <c r="AD63" s="52">
         <v>0.73926400000000003</v>
       </c>
-      <c r="AE63" s="51">
+      <c r="AE63" s="52">
         <v>0.74431800000000004</v>
       </c>
-      <c r="AF63" s="51">
+      <c r="AF63" s="52">
         <v>0.74924900000000005</v>
       </c>
-      <c r="AG63" s="51">
+      <c r="AG63" s="52">
         <v>0.75371200000000005</v>
       </c>
-      <c r="AH63" s="52">
+      <c r="AH63" s="53">
         <v>5.2440000000000004E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>247</v>
       </c>
@@ -17958,111 +17990,111 @@
         <v>-6.9179999999999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="49" t="s">
+    <row r="65" spans="1:34" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="52">
         <v>0.429176</v>
       </c>
-      <c r="D65" s="51">
+      <c r="D65" s="52">
         <v>0.43017899999999998</v>
       </c>
-      <c r="E65" s="51">
+      <c r="E65" s="52">
         <v>0.43247400000000003</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="52">
         <v>0.438166</v>
       </c>
-      <c r="G65" s="51">
+      <c r="G65" s="52">
         <v>0.446272</v>
       </c>
-      <c r="H65" s="51">
+      <c r="H65" s="52">
         <v>0.45343699999999998</v>
       </c>
-      <c r="I65" s="51">
+      <c r="I65" s="52">
         <v>0.45917200000000002</v>
       </c>
-      <c r="J65" s="51">
+      <c r="J65" s="52">
         <v>0.46388499999999999</v>
       </c>
-      <c r="K65" s="51">
+      <c r="K65" s="52">
         <v>0.46830100000000002</v>
       </c>
-      <c r="L65" s="51">
+      <c r="L65" s="52">
         <v>0.472109</v>
       </c>
-      <c r="M65" s="51">
+      <c r="M65" s="52">
         <v>0.47386600000000001</v>
       </c>
-      <c r="N65" s="51">
+      <c r="N65" s="52">
         <v>0.47666999999999998</v>
       </c>
-      <c r="O65" s="51">
+      <c r="O65" s="52">
         <v>0.480327</v>
       </c>
-      <c r="P65" s="51">
+      <c r="P65" s="52">
         <v>0.48453400000000002</v>
       </c>
-      <c r="Q65" s="51">
+      <c r="Q65" s="52">
         <v>0.48890699999999998</v>
       </c>
-      <c r="R65" s="51">
+      <c r="R65" s="52">
         <v>0.49354199999999998</v>
       </c>
-      <c r="S65" s="51">
+      <c r="S65" s="52">
         <v>0.49818299999999999</v>
       </c>
-      <c r="T65" s="51">
+      <c r="T65" s="52">
         <v>0.50261400000000001</v>
       </c>
-      <c r="U65" s="51">
+      <c r="U65" s="52">
         <v>0.50695400000000002</v>
       </c>
-      <c r="V65" s="51">
+      <c r="V65" s="52">
         <v>0.511347</v>
       </c>
-      <c r="W65" s="51">
+      <c r="W65" s="52">
         <v>0.51578100000000004</v>
       </c>
-      <c r="X65" s="51">
+      <c r="X65" s="52">
         <v>0.52051199999999997</v>
       </c>
-      <c r="Y65" s="51">
+      <c r="Y65" s="52">
         <v>0.52507599999999999</v>
       </c>
-      <c r="Z65" s="51">
+      <c r="Z65" s="52">
         <v>0.52961199999999997</v>
       </c>
-      <c r="AA65" s="51">
+      <c r="AA65" s="52">
         <v>0.53404399999999996</v>
       </c>
-      <c r="AB65" s="51">
+      <c r="AB65" s="52">
         <v>0.53846799999999995</v>
       </c>
-      <c r="AC65" s="51">
+      <c r="AC65" s="52">
         <v>0.54296900000000003</v>
       </c>
-      <c r="AD65" s="51">
+      <c r="AD65" s="52">
         <v>0.54744599999999999</v>
       </c>
-      <c r="AE65" s="51">
+      <c r="AE65" s="52">
         <v>0.55214300000000005</v>
       </c>
-      <c r="AF65" s="51">
+      <c r="AF65" s="52">
         <v>0.55677200000000004</v>
       </c>
-      <c r="AG65" s="51">
+      <c r="AG65" s="52">
         <v>0.56108000000000002</v>
       </c>
-      <c r="AH65" s="52">
+      <c r="AH65" s="53">
         <v>8.9730000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>249</v>
       </c>
@@ -18166,7 +18198,7 @@
         <v>-1.3917000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>250</v>
       </c>
@@ -18270,7 +18302,7 @@
         <v>2.696E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>251</v>
       </c>
@@ -18374,7 +18406,7 @@
         <v>2.2929999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>252</v>
       </c>
@@ -18478,7 +18510,7 @@
         <v>2.4781999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>253</v>
       </c>
@@ -18582,7 +18614,7 @@
         <v>1.5814000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>387</v>
       </c>
@@ -18686,7 +18718,7 @@
         <v>7.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>389</v>
       </c>
@@ -18790,7 +18822,7 @@
         <v>3.4981999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>255</v>
       </c>
@@ -18894,7 +18926,7 @@
         <v>6.8830000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>256</v>
       </c>
@@ -18998,12 +19030,12 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>257</v>
       </c>
@@ -19107,7 +19139,7 @@
         <v>-2.4429999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>258</v>
       </c>
@@ -19211,111 +19243,111 @@
         <v>3.153E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="39" t="s">
+    <row r="80" spans="1:34" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80" s="42">
         <v>0.69043399999999999</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="42">
         <v>0.68777500000000003</v>
       </c>
-      <c r="E80" s="41">
+      <c r="E80" s="42">
         <v>0.68591199999999997</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="42">
         <v>0.68877999999999995</v>
       </c>
-      <c r="G80" s="41">
+      <c r="G80" s="42">
         <v>0.69621200000000005</v>
       </c>
-      <c r="H80" s="41">
+      <c r="H80" s="42">
         <v>0.70161300000000004</v>
       </c>
-      <c r="I80" s="41">
+      <c r="I80" s="42">
         <v>0.70428599999999997</v>
       </c>
-      <c r="J80" s="41">
+      <c r="J80" s="42">
         <v>0.70554300000000003</v>
       </c>
-      <c r="K80" s="41">
+      <c r="K80" s="42">
         <v>0.70706100000000005</v>
       </c>
-      <c r="L80" s="41">
+      <c r="L80" s="42">
         <v>0.70783600000000002</v>
       </c>
-      <c r="M80" s="41">
+      <c r="M80" s="42">
         <v>0.70649300000000004</v>
       </c>
-      <c r="N80" s="41">
+      <c r="N80" s="42">
         <v>0.70668299999999995</v>
       </c>
-      <c r="O80" s="41">
+      <c r="O80" s="42">
         <v>0.70835700000000001</v>
       </c>
-      <c r="P80" s="41">
+      <c r="P80" s="42">
         <v>0.71090600000000004</v>
       </c>
-      <c r="Q80" s="41">
+      <c r="Q80" s="42">
         <v>0.71386499999999997</v>
       </c>
-      <c r="R80" s="41">
+      <c r="R80" s="42">
         <v>0.71748100000000004</v>
       </c>
-      <c r="S80" s="41">
+      <c r="S80" s="42">
         <v>0.72131000000000001</v>
       </c>
-      <c r="T80" s="41">
+      <c r="T80" s="42">
         <v>0.724912</v>
       </c>
-      <c r="U80" s="41">
+      <c r="U80" s="42">
         <v>0.72865000000000002</v>
       </c>
-      <c r="V80" s="41">
+      <c r="V80" s="42">
         <v>0.73268100000000003</v>
       </c>
-      <c r="W80" s="41">
+      <c r="W80" s="42">
         <v>0.736815</v>
       </c>
-      <c r="X80" s="41">
+      <c r="X80" s="42">
         <v>0.74112100000000003</v>
       </c>
-      <c r="Y80" s="41">
+      <c r="Y80" s="42">
         <v>0.74516499999999997</v>
       </c>
-      <c r="Z80" s="41">
+      <c r="Z80" s="42">
         <v>0.74911899999999998</v>
       </c>
-      <c r="AA80" s="41">
+      <c r="AA80" s="42">
         <v>0.75286900000000001</v>
       </c>
-      <c r="AB80" s="41">
+      <c r="AB80" s="42">
         <v>0.75677799999999995</v>
       </c>
-      <c r="AC80" s="41">
+      <c r="AC80" s="42">
         <v>0.76086200000000004</v>
       </c>
-      <c r="AD80" s="41">
+      <c r="AD80" s="42">
         <v>0.76511300000000004</v>
       </c>
-      <c r="AE80" s="41">
+      <c r="AE80" s="42">
         <v>0.76983500000000005</v>
       </c>
-      <c r="AF80" s="41">
+      <c r="AF80" s="42">
         <v>0.77451899999999996</v>
       </c>
-      <c r="AG80" s="41">
+      <c r="AG80" s="42">
         <v>0.778729</v>
       </c>
-      <c r="AH80" s="42">
+      <c r="AH80" s="43">
         <v>4.019E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>260</v>
       </c>
@@ -19419,111 +19451,111 @@
         <v>-1.3395000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="44" t="s">
+    <row r="82" spans="1:34" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="46">
+      <c r="C82" s="47">
         <v>0.58410099999999998</v>
       </c>
-      <c r="D82" s="46">
+      <c r="D82" s="47">
         <v>0.58340000000000003</v>
       </c>
-      <c r="E82" s="46">
+      <c r="E82" s="47">
         <v>0.58459700000000003</v>
       </c>
-      <c r="F82" s="46">
+      <c r="F82" s="47">
         <v>0.58573900000000001</v>
       </c>
-      <c r="G82" s="46">
+      <c r="G82" s="47">
         <v>0.58982900000000005</v>
       </c>
-      <c r="H82" s="46">
+      <c r="H82" s="47">
         <v>0.59200299999999995</v>
       </c>
-      <c r="I82" s="46">
+      <c r="I82" s="47">
         <v>0.59231599999999995</v>
       </c>
-      <c r="J82" s="46">
+      <c r="J82" s="47">
         <v>0.59284999999999999</v>
       </c>
-      <c r="K82" s="46">
+      <c r="K82" s="47">
         <v>0.59478200000000003</v>
       </c>
-      <c r="L82" s="46">
+      <c r="L82" s="47">
         <v>0.59648400000000001</v>
       </c>
-      <c r="M82" s="46">
+      <c r="M82" s="47">
         <v>0.59722600000000003</v>
       </c>
-      <c r="N82" s="46">
+      <c r="N82" s="47">
         <v>0.598688</v>
       </c>
-      <c r="O82" s="46">
+      <c r="O82" s="47">
         <v>0.600881</v>
       </c>
-      <c r="P82" s="46">
+      <c r="P82" s="47">
         <v>0.60396000000000005</v>
       </c>
-      <c r="Q82" s="46">
+      <c r="Q82" s="47">
         <v>0.60707199999999994</v>
       </c>
-      <c r="R82" s="46">
+      <c r="R82" s="47">
         <v>0.61068999999999996</v>
       </c>
-      <c r="S82" s="46">
+      <c r="S82" s="47">
         <v>0.61424400000000001</v>
       </c>
-      <c r="T82" s="46">
+      <c r="T82" s="47">
         <v>0.61745099999999997</v>
       </c>
-      <c r="U82" s="46">
+      <c r="U82" s="47">
         <v>0.62058599999999997</v>
       </c>
-      <c r="V82" s="46">
+      <c r="V82" s="47">
         <v>0.62398600000000004</v>
       </c>
-      <c r="W82" s="46">
+      <c r="W82" s="47">
         <v>0.62752699999999995</v>
       </c>
-      <c r="X82" s="46">
+      <c r="X82" s="47">
         <v>0.63148400000000005</v>
       </c>
-      <c r="Y82" s="46">
+      <c r="Y82" s="47">
         <v>0.635293</v>
       </c>
-      <c r="Z82" s="46">
+      <c r="Z82" s="47">
         <v>0.63880599999999998</v>
       </c>
-      <c r="AA82" s="46">
+      <c r="AA82" s="47">
         <v>0.64180899999999996</v>
       </c>
-      <c r="AB82" s="46">
+      <c r="AB82" s="47">
         <v>0.64534899999999995</v>
       </c>
-      <c r="AC82" s="46">
+      <c r="AC82" s="47">
         <v>0.64896500000000001</v>
       </c>
-      <c r="AD82" s="46">
+      <c r="AD82" s="47">
         <v>0.65261400000000003</v>
       </c>
-      <c r="AE82" s="46">
+      <c r="AE82" s="47">
         <v>0.65642800000000001</v>
       </c>
-      <c r="AF82" s="46">
+      <c r="AF82" s="47">
         <v>0.66048700000000005</v>
       </c>
-      <c r="AG82" s="46">
+      <c r="AG82" s="47">
         <v>0.66417999999999999</v>
       </c>
-      <c r="AH82" s="47">
+      <c r="AH82" s="48">
         <v>4.2919999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>262</v>
       </c>
@@ -19627,7 +19659,7 @@
         <v>-2.0348999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>263</v>
       </c>
@@ -19731,7 +19763,7 @@
         <v>-3.8440000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>264</v>
       </c>
@@ -19835,7 +19867,7 @@
         <v>-4.2449999999999996E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>265</v>
       </c>
@@ -19939,7 +19971,7 @@
         <v>1.8098E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>266</v>
       </c>
@@ -20043,7 +20075,7 @@
         <v>1.3627999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>267</v>
       </c>
@@ -20147,7 +20179,7 @@
         <v>3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>391</v>
       </c>
@@ -20251,7 +20283,7 @@
         <v>3.4981999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>392</v>
       </c>
@@ -20355,12 +20387,12 @@
         <v>3.3279999999999998E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B92" s="25" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>268</v>
       </c>
@@ -20464,7 +20496,7 @@
         <v>-3.9649999999999998E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>270</v>
       </c>
@@ -20568,7 +20600,7 @@
         <v>3.7794000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>271</v>
       </c>
@@ -20672,7 +20704,7 @@
         <v>-3.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>272</v>
       </c>
@@ -20776,12 +20808,12 @@
         <v>2.8707E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>273</v>
       </c>
@@ -20885,7 +20917,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>274</v>
       </c>
@@ -20989,7 +21021,7 @@
         <v>-5.3799999999999996E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>275</v>
       </c>
@@ -21093,7 +21125,7 @@
         <v>3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>276</v>
       </c>
@@ -21197,7 +21229,7 @@
         <v>5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>277</v>
       </c>
@@ -21301,7 +21333,7 @@
         <v>-4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>278</v>
       </c>
@@ -21405,7 +21437,7 @@
         <v>7.6099999999999996E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>279</v>
       </c>
@@ -21509,7 +21541,7 @@
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>280</v>
       </c>
@@ -21613,7 +21645,7 @@
         <v>-2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>281</v>
       </c>
@@ -21717,7 +21749,7 @@
         <v>-4.0810000000000004E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>282</v>
       </c>
@@ -21821,12 +21853,12 @@
         <v>-2.114E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>283</v>
       </c>
@@ -21930,111 +21962,111 @@
         <v>4.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B112" s="60" t="s">
+      <c r="B112" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="61">
+      <c r="C112" s="62">
         <v>840</v>
       </c>
-      <c r="D112" s="61">
+      <c r="D112" s="62">
         <v>706</v>
       </c>
-      <c r="E112" s="61">
+      <c r="E112" s="62">
         <v>826</v>
       </c>
-      <c r="F112" s="61">
+      <c r="F112" s="62">
         <v>834</v>
       </c>
-      <c r="G112" s="61">
+      <c r="G112" s="62">
         <v>842</v>
       </c>
-      <c r="H112" s="61">
+      <c r="H112" s="62">
         <v>850</v>
       </c>
-      <c r="I112" s="61">
+      <c r="I112" s="62">
         <v>858</v>
       </c>
-      <c r="J112" s="61">
+      <c r="J112" s="62">
         <v>867</v>
       </c>
-      <c r="K112" s="61">
+      <c r="K112" s="62">
         <v>875</v>
       </c>
-      <c r="L112" s="61">
+      <c r="L112" s="62">
         <v>883</v>
       </c>
-      <c r="M112" s="61">
+      <c r="M112" s="62">
         <v>891</v>
       </c>
-      <c r="N112" s="61">
+      <c r="N112" s="62">
         <v>899</v>
       </c>
-      <c r="O112" s="61">
+      <c r="O112" s="62">
         <v>907</v>
       </c>
-      <c r="P112" s="61">
+      <c r="P112" s="62">
         <v>916</v>
       </c>
-      <c r="Q112" s="61">
+      <c r="Q112" s="62">
         <v>924</v>
       </c>
-      <c r="R112" s="61">
+      <c r="R112" s="62">
         <v>932</v>
       </c>
-      <c r="S112" s="61">
+      <c r="S112" s="62">
         <v>940</v>
       </c>
-      <c r="T112" s="61">
+      <c r="T112" s="62">
         <v>948</v>
       </c>
-      <c r="U112" s="61">
+      <c r="U112" s="62">
         <v>956</v>
       </c>
-      <c r="V112" s="61">
+      <c r="V112" s="62">
         <v>965</v>
       </c>
-      <c r="W112" s="61">
+      <c r="W112" s="62">
         <v>973</v>
       </c>
-      <c r="X112" s="61">
+      <c r="X112" s="62">
         <v>981</v>
       </c>
-      <c r="Y112" s="61">
+      <c r="Y112" s="62">
         <v>989</v>
       </c>
-      <c r="Z112" s="61">
+      <c r="Z112" s="62">
         <v>997</v>
       </c>
-      <c r="AA112" s="61">
+      <c r="AA112" s="62">
         <v>1005</v>
       </c>
-      <c r="AB112" s="61">
+      <c r="AB112" s="62">
         <v>1014</v>
       </c>
-      <c r="AC112" s="61">
+      <c r="AC112" s="62">
         <v>1022</v>
       </c>
-      <c r="AD112" s="61">
+      <c r="AD112" s="62">
         <v>1030</v>
       </c>
-      <c r="AE112" s="61">
+      <c r="AE112" s="62">
         <v>1038</v>
       </c>
-      <c r="AF112" s="61">
+      <c r="AF112" s="62">
         <v>1046</v>
       </c>
-      <c r="AG112" s="61">
+      <c r="AG112" s="62">
         <v>1054</v>
       </c>
-      <c r="AH112" s="62">
+      <c r="AH112" s="63">
         <v>7.5940000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>285</v>
       </c>
@@ -22138,7 +22170,7 @@
         <v>7.28E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>286</v>
       </c>
@@ -22242,7 +22274,7 @@
         <v>6.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>287</v>
       </c>
@@ -22346,7 +22378,7 @@
         <v>6.5139999999999998E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>288</v>
       </c>
@@ -22450,7 +22482,7 @@
         <v>8.4969999999999993E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>289</v>
       </c>
@@ -22554,7 +22586,7 @@
         <v>5.9420000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>290</v>
       </c>
@@ -22658,7 +22690,7 @@
         <v>3.4979999999999998E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>291</v>
       </c>
@@ -22762,7 +22794,7 @@
         <v>4.0660000000000002E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>292</v>
       </c>
@@ -22866,798 +22898,798 @@
         <v>7.528E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="58" t="s">
+    <row r="121" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="59"/>
-      <c r="D122" s="59"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
-      <c r="H122" s="59"/>
-      <c r="I122" s="59"/>
-      <c r="J122" s="59"/>
-      <c r="K122" s="59"/>
-      <c r="L122" s="59"/>
-      <c r="M122" s="59"/>
-      <c r="N122" s="59"/>
-      <c r="O122" s="59"/>
-      <c r="P122" s="59"/>
-      <c r="Q122" s="59"/>
-      <c r="R122" s="59"/>
-      <c r="S122" s="59"/>
-      <c r="T122" s="59"/>
-      <c r="U122" s="59"/>
-      <c r="V122" s="59"/>
-      <c r="W122" s="59"/>
-      <c r="X122" s="59"/>
-      <c r="Y122" s="59"/>
-      <c r="Z122" s="59"/>
-      <c r="AA122" s="59"/>
-      <c r="AB122" s="59"/>
-      <c r="AC122" s="59"/>
-      <c r="AD122" s="59"/>
-      <c r="AE122" s="59"/>
-      <c r="AF122" s="59"/>
-      <c r="AG122" s="59"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="60"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="60"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="60"/>
+      <c r="K122" s="60"/>
+      <c r="L122" s="60"/>
+      <c r="M122" s="60"/>
+      <c r="N122" s="60"/>
+      <c r="O122" s="60"/>
+      <c r="P122" s="60"/>
+      <c r="Q122" s="60"/>
+      <c r="R122" s="60"/>
+      <c r="S122" s="60"/>
+      <c r="T122" s="60"/>
+      <c r="U122" s="60"/>
+      <c r="V122" s="60"/>
+      <c r="W122" s="60"/>
+      <c r="X122" s="60"/>
+      <c r="Y122" s="60"/>
+      <c r="Z122" s="60"/>
+      <c r="AA122" s="60"/>
+      <c r="AB122" s="60"/>
+      <c r="AC122" s="60"/>
+      <c r="AD122" s="60"/>
+      <c r="AE122" s="60"/>
+      <c r="AF122" s="60"/>
+      <c r="AG122" s="60"/>
       <c r="AH122" s="37"/>
     </row>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="13" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="54"/>
-      <c r="C308" s="54"/>
-      <c r="D308" s="54"/>
-      <c r="E308" s="54"/>
-      <c r="F308" s="54"/>
-      <c r="G308" s="54"/>
-      <c r="H308" s="54"/>
-      <c r="I308" s="54"/>
-      <c r="J308" s="54"/>
-      <c r="K308" s="54"/>
-      <c r="L308" s="54"/>
-      <c r="M308" s="54"/>
-      <c r="N308" s="54"/>
-      <c r="O308" s="54"/>
-      <c r="P308" s="54"/>
-      <c r="Q308" s="54"/>
-      <c r="R308" s="54"/>
-      <c r="S308" s="54"/>
-      <c r="T308" s="54"/>
-      <c r="U308" s="54"/>
-      <c r="V308" s="54"/>
-      <c r="W308" s="54"/>
-      <c r="X308" s="54"/>
-      <c r="Y308" s="54"/>
-      <c r="Z308" s="54"/>
-      <c r="AA308" s="54"/>
-      <c r="AB308" s="54"/>
-      <c r="AC308" s="54"/>
-      <c r="AD308" s="54"/>
-      <c r="AE308" s="54"/>
-      <c r="AF308" s="54"/>
-      <c r="AG308" s="54"/>
-      <c r="AH308" s="54"/>
-    </row>
-    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="54"/>
-      <c r="C511" s="54"/>
-      <c r="D511" s="54"/>
-      <c r="E511" s="54"/>
-      <c r="F511" s="54"/>
-      <c r="G511" s="54"/>
-      <c r="H511" s="54"/>
-      <c r="I511" s="54"/>
-      <c r="J511" s="54"/>
-      <c r="K511" s="54"/>
-      <c r="L511" s="54"/>
-      <c r="M511" s="54"/>
-      <c r="N511" s="54"/>
-      <c r="O511" s="54"/>
-      <c r="P511" s="54"/>
-      <c r="Q511" s="54"/>
-      <c r="R511" s="54"/>
-      <c r="S511" s="54"/>
-      <c r="T511" s="54"/>
-      <c r="U511" s="54"/>
-      <c r="V511" s="54"/>
-      <c r="W511" s="54"/>
-      <c r="X511" s="54"/>
-      <c r="Y511" s="54"/>
-      <c r="Z511" s="54"/>
-      <c r="AA511" s="54"/>
-      <c r="AB511" s="54"/>
-      <c r="AC511" s="54"/>
-      <c r="AD511" s="54"/>
-      <c r="AE511" s="54"/>
-      <c r="AF511" s="54"/>
-      <c r="AG511" s="54"/>
-      <c r="AH511" s="54"/>
-    </row>
-    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="54"/>
-      <c r="C712" s="54"/>
-      <c r="D712" s="54"/>
-      <c r="E712" s="54"/>
-      <c r="F712" s="54"/>
-      <c r="G712" s="54"/>
-      <c r="H712" s="54"/>
-      <c r="I712" s="54"/>
-      <c r="J712" s="54"/>
-      <c r="K712" s="54"/>
-      <c r="L712" s="54"/>
-      <c r="M712" s="54"/>
-      <c r="N712" s="54"/>
-      <c r="O712" s="54"/>
-      <c r="P712" s="54"/>
-      <c r="Q712" s="54"/>
-      <c r="R712" s="54"/>
-      <c r="S712" s="54"/>
-      <c r="T712" s="54"/>
-      <c r="U712" s="54"/>
-      <c r="V712" s="54"/>
-      <c r="W712" s="54"/>
-      <c r="X712" s="54"/>
-      <c r="Y712" s="54"/>
-      <c r="Z712" s="54"/>
-      <c r="AA712" s="54"/>
-      <c r="AB712" s="54"/>
-      <c r="AC712" s="54"/>
-      <c r="AD712" s="54"/>
-      <c r="AE712" s="54"/>
-      <c r="AF712" s="54"/>
-      <c r="AG712" s="54"/>
-      <c r="AH712" s="54"/>
-    </row>
-    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="54"/>
-      <c r="C887" s="54"/>
-      <c r="D887" s="54"/>
-      <c r="E887" s="54"/>
-      <c r="F887" s="54"/>
-      <c r="G887" s="54"/>
-      <c r="H887" s="54"/>
-      <c r="I887" s="54"/>
-      <c r="J887" s="54"/>
-      <c r="K887" s="54"/>
-      <c r="L887" s="54"/>
-      <c r="M887" s="54"/>
-      <c r="N887" s="54"/>
-      <c r="O887" s="54"/>
-      <c r="P887" s="54"/>
-      <c r="Q887" s="54"/>
-      <c r="R887" s="54"/>
-      <c r="S887" s="54"/>
-      <c r="T887" s="54"/>
-      <c r="U887" s="54"/>
-      <c r="V887" s="54"/>
-      <c r="W887" s="54"/>
-      <c r="X887" s="54"/>
-      <c r="Y887" s="54"/>
-      <c r="Z887" s="54"/>
-      <c r="AA887" s="54"/>
-      <c r="AB887" s="54"/>
-      <c r="AC887" s="54"/>
-      <c r="AD887" s="54"/>
-      <c r="AE887" s="54"/>
-      <c r="AF887" s="54"/>
-      <c r="AG887" s="54"/>
-      <c r="AH887" s="54"/>
-    </row>
-    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1100" s="54"/>
-      <c r="C1100" s="54"/>
-      <c r="D1100" s="54"/>
-      <c r="E1100" s="54"/>
-      <c r="F1100" s="54"/>
-      <c r="G1100" s="54"/>
-      <c r="H1100" s="54"/>
-      <c r="I1100" s="54"/>
-      <c r="J1100" s="54"/>
-      <c r="K1100" s="54"/>
-      <c r="L1100" s="54"/>
-      <c r="M1100" s="54"/>
-      <c r="N1100" s="54"/>
-      <c r="O1100" s="54"/>
-      <c r="P1100" s="54"/>
-      <c r="Q1100" s="54"/>
-      <c r="R1100" s="54"/>
-      <c r="S1100" s="54"/>
-      <c r="T1100" s="54"/>
-      <c r="U1100" s="54"/>
-      <c r="V1100" s="54"/>
-      <c r="W1100" s="54"/>
-      <c r="X1100" s="54"/>
-      <c r="Y1100" s="54"/>
-      <c r="Z1100" s="54"/>
-      <c r="AA1100" s="54"/>
-      <c r="AB1100" s="54"/>
-      <c r="AC1100" s="54"/>
-      <c r="AD1100" s="54"/>
-      <c r="AE1100" s="54"/>
-      <c r="AF1100" s="54"/>
-      <c r="AG1100" s="54"/>
-      <c r="AH1100" s="54"/>
-    </row>
-    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1227" s="54"/>
-      <c r="C1227" s="54"/>
-      <c r="D1227" s="54"/>
-      <c r="E1227" s="54"/>
-      <c r="F1227" s="54"/>
-      <c r="G1227" s="54"/>
-      <c r="H1227" s="54"/>
-      <c r="I1227" s="54"/>
-      <c r="J1227" s="54"/>
-      <c r="K1227" s="54"/>
-      <c r="L1227" s="54"/>
-      <c r="M1227" s="54"/>
-      <c r="N1227" s="54"/>
-      <c r="O1227" s="54"/>
-      <c r="P1227" s="54"/>
-      <c r="Q1227" s="54"/>
-      <c r="R1227" s="54"/>
-      <c r="S1227" s="54"/>
-      <c r="T1227" s="54"/>
-      <c r="U1227" s="54"/>
-      <c r="V1227" s="54"/>
-      <c r="W1227" s="54"/>
-      <c r="X1227" s="54"/>
-      <c r="Y1227" s="54"/>
-      <c r="Z1227" s="54"/>
-      <c r="AA1227" s="54"/>
-      <c r="AB1227" s="54"/>
-      <c r="AC1227" s="54"/>
-      <c r="AD1227" s="54"/>
-      <c r="AE1227" s="54"/>
-      <c r="AF1227" s="54"/>
-      <c r="AG1227" s="54"/>
-      <c r="AH1227" s="54"/>
-    </row>
-    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1390" s="54"/>
-      <c r="C1390" s="54"/>
-      <c r="D1390" s="54"/>
-      <c r="E1390" s="54"/>
-      <c r="F1390" s="54"/>
-      <c r="G1390" s="54"/>
-      <c r="H1390" s="54"/>
-      <c r="I1390" s="54"/>
-      <c r="J1390" s="54"/>
-      <c r="K1390" s="54"/>
-      <c r="L1390" s="54"/>
-      <c r="M1390" s="54"/>
-      <c r="N1390" s="54"/>
-      <c r="O1390" s="54"/>
-      <c r="P1390" s="54"/>
-      <c r="Q1390" s="54"/>
-      <c r="R1390" s="54"/>
-      <c r="S1390" s="54"/>
-      <c r="T1390" s="54"/>
-      <c r="U1390" s="54"/>
-      <c r="V1390" s="54"/>
-      <c r="W1390" s="54"/>
-      <c r="X1390" s="54"/>
-      <c r="Y1390" s="54"/>
-      <c r="Z1390" s="54"/>
-      <c r="AA1390" s="54"/>
-      <c r="AB1390" s="54"/>
-      <c r="AC1390" s="54"/>
-      <c r="AD1390" s="54"/>
-      <c r="AE1390" s="54"/>
-      <c r="AF1390" s="54"/>
-      <c r="AG1390" s="54"/>
-      <c r="AH1390" s="54"/>
-    </row>
-    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1502" s="54"/>
-      <c r="C1502" s="54"/>
-      <c r="D1502" s="54"/>
-      <c r="E1502" s="54"/>
-      <c r="F1502" s="54"/>
-      <c r="G1502" s="54"/>
-      <c r="H1502" s="54"/>
-      <c r="I1502" s="54"/>
-      <c r="J1502" s="54"/>
-      <c r="K1502" s="54"/>
-      <c r="L1502" s="54"/>
-      <c r="M1502" s="54"/>
-      <c r="N1502" s="54"/>
-      <c r="O1502" s="54"/>
-      <c r="P1502" s="54"/>
-      <c r="Q1502" s="54"/>
-      <c r="R1502" s="54"/>
-      <c r="S1502" s="54"/>
-      <c r="T1502" s="54"/>
-      <c r="U1502" s="54"/>
-      <c r="V1502" s="54"/>
-      <c r="W1502" s="54"/>
-      <c r="X1502" s="54"/>
-      <c r="Y1502" s="54"/>
-      <c r="Z1502" s="54"/>
-      <c r="AA1502" s="54"/>
-      <c r="AB1502" s="54"/>
-      <c r="AC1502" s="54"/>
-      <c r="AD1502" s="54"/>
-      <c r="AE1502" s="54"/>
-      <c r="AF1502" s="54"/>
-      <c r="AG1502" s="54"/>
-      <c r="AH1502" s="54"/>
-    </row>
-    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1604" s="54"/>
-      <c r="C1604" s="54"/>
-      <c r="D1604" s="54"/>
-      <c r="E1604" s="54"/>
-      <c r="F1604" s="54"/>
-      <c r="G1604" s="54"/>
-      <c r="H1604" s="54"/>
-      <c r="I1604" s="54"/>
-      <c r="J1604" s="54"/>
-      <c r="K1604" s="54"/>
-      <c r="L1604" s="54"/>
-      <c r="M1604" s="54"/>
-      <c r="N1604" s="54"/>
-      <c r="O1604" s="54"/>
-      <c r="P1604" s="54"/>
-      <c r="Q1604" s="54"/>
-      <c r="R1604" s="54"/>
-      <c r="S1604" s="54"/>
-      <c r="T1604" s="54"/>
-      <c r="U1604" s="54"/>
-      <c r="V1604" s="54"/>
-      <c r="W1604" s="54"/>
-      <c r="X1604" s="54"/>
-      <c r="Y1604" s="54"/>
-      <c r="Z1604" s="54"/>
-      <c r="AA1604" s="54"/>
-      <c r="AB1604" s="54"/>
-      <c r="AC1604" s="54"/>
-      <c r="AD1604" s="54"/>
-      <c r="AE1604" s="54"/>
-      <c r="AF1604" s="54"/>
-      <c r="AG1604" s="54"/>
-      <c r="AH1604" s="54"/>
-    </row>
-    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1698" s="54"/>
-      <c r="C1698" s="54"/>
-      <c r="D1698" s="54"/>
-      <c r="E1698" s="54"/>
-      <c r="F1698" s="54"/>
-      <c r="G1698" s="54"/>
-      <c r="H1698" s="54"/>
-      <c r="I1698" s="54"/>
-      <c r="J1698" s="54"/>
-      <c r="K1698" s="54"/>
-      <c r="L1698" s="54"/>
-      <c r="M1698" s="54"/>
-      <c r="N1698" s="54"/>
-      <c r="O1698" s="54"/>
-      <c r="P1698" s="54"/>
-      <c r="Q1698" s="54"/>
-      <c r="R1698" s="54"/>
-      <c r="S1698" s="54"/>
-      <c r="T1698" s="54"/>
-      <c r="U1698" s="54"/>
-      <c r="V1698" s="54"/>
-      <c r="W1698" s="54"/>
-      <c r="X1698" s="54"/>
-      <c r="Y1698" s="54"/>
-      <c r="Z1698" s="54"/>
-      <c r="AA1698" s="54"/>
-      <c r="AB1698" s="54"/>
-      <c r="AC1698" s="54"/>
-      <c r="AD1698" s="54"/>
-      <c r="AE1698" s="54"/>
-      <c r="AF1698" s="54"/>
-      <c r="AG1698" s="54"/>
-      <c r="AH1698" s="54"/>
-    </row>
-    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1945" s="54"/>
-      <c r="C1945" s="54"/>
-      <c r="D1945" s="54"/>
-      <c r="E1945" s="54"/>
-      <c r="F1945" s="54"/>
-      <c r="G1945" s="54"/>
-      <c r="H1945" s="54"/>
-      <c r="I1945" s="54"/>
-      <c r="J1945" s="54"/>
-      <c r="K1945" s="54"/>
-      <c r="L1945" s="54"/>
-      <c r="M1945" s="54"/>
-      <c r="N1945" s="54"/>
-      <c r="O1945" s="54"/>
-      <c r="P1945" s="54"/>
-      <c r="Q1945" s="54"/>
-      <c r="R1945" s="54"/>
-      <c r="S1945" s="54"/>
-      <c r="T1945" s="54"/>
-      <c r="U1945" s="54"/>
-      <c r="V1945" s="54"/>
-      <c r="W1945" s="54"/>
-      <c r="X1945" s="54"/>
-      <c r="Y1945" s="54"/>
-      <c r="Z1945" s="54"/>
-      <c r="AA1945" s="54"/>
-      <c r="AB1945" s="54"/>
-      <c r="AC1945" s="54"/>
-      <c r="AD1945" s="54"/>
-      <c r="AE1945" s="54"/>
-      <c r="AF1945" s="54"/>
-      <c r="AG1945" s="54"/>
-      <c r="AH1945" s="54"/>
-    </row>
-    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2031" s="54"/>
-      <c r="C2031" s="54"/>
-      <c r="D2031" s="54"/>
-      <c r="E2031" s="54"/>
-      <c r="F2031" s="54"/>
-      <c r="G2031" s="54"/>
-      <c r="H2031" s="54"/>
-      <c r="I2031" s="54"/>
-      <c r="J2031" s="54"/>
-      <c r="K2031" s="54"/>
-      <c r="L2031" s="54"/>
-      <c r="M2031" s="54"/>
-      <c r="N2031" s="54"/>
-      <c r="O2031" s="54"/>
-      <c r="P2031" s="54"/>
-      <c r="Q2031" s="54"/>
-      <c r="R2031" s="54"/>
-      <c r="S2031" s="54"/>
-      <c r="T2031" s="54"/>
-      <c r="U2031" s="54"/>
-      <c r="V2031" s="54"/>
-      <c r="W2031" s="54"/>
-      <c r="X2031" s="54"/>
-      <c r="Y2031" s="54"/>
-      <c r="Z2031" s="54"/>
-      <c r="AA2031" s="54"/>
-      <c r="AB2031" s="54"/>
-      <c r="AC2031" s="54"/>
-      <c r="AD2031" s="54"/>
-      <c r="AE2031" s="54"/>
-      <c r="AF2031" s="54"/>
-      <c r="AG2031" s="54"/>
-      <c r="AH2031" s="54"/>
-    </row>
-    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2153" s="54"/>
-      <c r="C2153" s="54"/>
-      <c r="D2153" s="54"/>
-      <c r="E2153" s="54"/>
-      <c r="F2153" s="54"/>
-      <c r="G2153" s="54"/>
-      <c r="H2153" s="54"/>
-      <c r="I2153" s="54"/>
-      <c r="J2153" s="54"/>
-      <c r="K2153" s="54"/>
-      <c r="L2153" s="54"/>
-      <c r="M2153" s="54"/>
-      <c r="N2153" s="54"/>
-      <c r="O2153" s="54"/>
-      <c r="P2153" s="54"/>
-      <c r="Q2153" s="54"/>
-      <c r="R2153" s="54"/>
-      <c r="S2153" s="54"/>
-      <c r="T2153" s="54"/>
-      <c r="U2153" s="54"/>
-      <c r="V2153" s="54"/>
-      <c r="W2153" s="54"/>
-      <c r="X2153" s="54"/>
-      <c r="Y2153" s="54"/>
-      <c r="Z2153" s="54"/>
-      <c r="AA2153" s="54"/>
-      <c r="AB2153" s="54"/>
-      <c r="AC2153" s="54"/>
-      <c r="AD2153" s="54"/>
-      <c r="AE2153" s="54"/>
-      <c r="AF2153" s="54"/>
-      <c r="AG2153" s="54"/>
-      <c r="AH2153" s="54"/>
-    </row>
-    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2317" s="54"/>
-      <c r="C2317" s="54"/>
-      <c r="D2317" s="54"/>
-      <c r="E2317" s="54"/>
-      <c r="F2317" s="54"/>
-      <c r="G2317" s="54"/>
-      <c r="H2317" s="54"/>
-      <c r="I2317" s="54"/>
-      <c r="J2317" s="54"/>
-      <c r="K2317" s="54"/>
-      <c r="L2317" s="54"/>
-      <c r="M2317" s="54"/>
-      <c r="N2317" s="54"/>
-      <c r="O2317" s="54"/>
-      <c r="P2317" s="54"/>
-      <c r="Q2317" s="54"/>
-      <c r="R2317" s="54"/>
-      <c r="S2317" s="54"/>
-      <c r="T2317" s="54"/>
-      <c r="U2317" s="54"/>
-      <c r="V2317" s="54"/>
-      <c r="W2317" s="54"/>
-      <c r="X2317" s="54"/>
-      <c r="Y2317" s="54"/>
-      <c r="Z2317" s="54"/>
-      <c r="AA2317" s="54"/>
-      <c r="AB2317" s="54"/>
-      <c r="AC2317" s="54"/>
-      <c r="AD2317" s="54"/>
-      <c r="AE2317" s="54"/>
-      <c r="AF2317" s="54"/>
-      <c r="AG2317" s="54"/>
-      <c r="AH2317" s="54"/>
-    </row>
-    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2419" s="54"/>
-      <c r="C2419" s="54"/>
-      <c r="D2419" s="54"/>
-      <c r="E2419" s="54"/>
-      <c r="F2419" s="54"/>
-      <c r="G2419" s="54"/>
-      <c r="H2419" s="54"/>
-      <c r="I2419" s="54"/>
-      <c r="J2419" s="54"/>
-      <c r="K2419" s="54"/>
-      <c r="L2419" s="54"/>
-      <c r="M2419" s="54"/>
-      <c r="N2419" s="54"/>
-      <c r="O2419" s="54"/>
-      <c r="P2419" s="54"/>
-      <c r="Q2419" s="54"/>
-      <c r="R2419" s="54"/>
-      <c r="S2419" s="54"/>
-      <c r="T2419" s="54"/>
-      <c r="U2419" s="54"/>
-      <c r="V2419" s="54"/>
-      <c r="W2419" s="54"/>
-      <c r="X2419" s="54"/>
-      <c r="Y2419" s="54"/>
-      <c r="Z2419" s="54"/>
-      <c r="AA2419" s="54"/>
-      <c r="AB2419" s="54"/>
-      <c r="AC2419" s="54"/>
-      <c r="AD2419" s="54"/>
-      <c r="AE2419" s="54"/>
-      <c r="AF2419" s="54"/>
-      <c r="AG2419" s="54"/>
-      <c r="AH2419" s="54"/>
-    </row>
-    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2509" s="54"/>
-      <c r="C2509" s="54"/>
-      <c r="D2509" s="54"/>
-      <c r="E2509" s="54"/>
-      <c r="F2509" s="54"/>
-      <c r="G2509" s="54"/>
-      <c r="H2509" s="54"/>
-      <c r="I2509" s="54"/>
-      <c r="J2509" s="54"/>
-      <c r="K2509" s="54"/>
-      <c r="L2509" s="54"/>
-      <c r="M2509" s="54"/>
-      <c r="N2509" s="54"/>
-      <c r="O2509" s="54"/>
-      <c r="P2509" s="54"/>
-      <c r="Q2509" s="54"/>
-      <c r="R2509" s="54"/>
-      <c r="S2509" s="54"/>
-      <c r="T2509" s="54"/>
-      <c r="U2509" s="54"/>
-      <c r="V2509" s="54"/>
-      <c r="W2509" s="54"/>
-      <c r="X2509" s="54"/>
-      <c r="Y2509" s="54"/>
-      <c r="Z2509" s="54"/>
-      <c r="AA2509" s="54"/>
-      <c r="AB2509" s="54"/>
-      <c r="AC2509" s="54"/>
-      <c r="AD2509" s="54"/>
-      <c r="AE2509" s="54"/>
-      <c r="AF2509" s="54"/>
-      <c r="AG2509" s="54"/>
-      <c r="AH2509" s="54"/>
-    </row>
-    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2598" s="54"/>
-      <c r="C2598" s="54"/>
-      <c r="D2598" s="54"/>
-      <c r="E2598" s="54"/>
-      <c r="F2598" s="54"/>
-      <c r="G2598" s="54"/>
-      <c r="H2598" s="54"/>
-      <c r="I2598" s="54"/>
-      <c r="J2598" s="54"/>
-      <c r="K2598" s="54"/>
-      <c r="L2598" s="54"/>
-      <c r="M2598" s="54"/>
-      <c r="N2598" s="54"/>
-      <c r="O2598" s="54"/>
-      <c r="P2598" s="54"/>
-      <c r="Q2598" s="54"/>
-      <c r="R2598" s="54"/>
-      <c r="S2598" s="54"/>
-      <c r="T2598" s="54"/>
-      <c r="U2598" s="54"/>
-      <c r="V2598" s="54"/>
-      <c r="W2598" s="54"/>
-      <c r="X2598" s="54"/>
-      <c r="Y2598" s="54"/>
-      <c r="Z2598" s="54"/>
-      <c r="AA2598" s="54"/>
-      <c r="AB2598" s="54"/>
-      <c r="AC2598" s="54"/>
-      <c r="AD2598" s="54"/>
-      <c r="AE2598" s="54"/>
-      <c r="AF2598" s="54"/>
-      <c r="AG2598" s="54"/>
-      <c r="AH2598" s="54"/>
-    </row>
-    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2719" s="54"/>
-      <c r="C2719" s="54"/>
-      <c r="D2719" s="54"/>
-      <c r="E2719" s="54"/>
-      <c r="F2719" s="54"/>
-      <c r="G2719" s="54"/>
-      <c r="H2719" s="54"/>
-      <c r="I2719" s="54"/>
-      <c r="J2719" s="54"/>
-      <c r="K2719" s="54"/>
-      <c r="L2719" s="54"/>
-      <c r="M2719" s="54"/>
-      <c r="N2719" s="54"/>
-      <c r="O2719" s="54"/>
-      <c r="P2719" s="54"/>
-      <c r="Q2719" s="54"/>
-      <c r="R2719" s="54"/>
-      <c r="S2719" s="54"/>
-      <c r="T2719" s="54"/>
-      <c r="U2719" s="54"/>
-      <c r="V2719" s="54"/>
-      <c r="W2719" s="54"/>
-      <c r="X2719" s="54"/>
-      <c r="Y2719" s="54"/>
-      <c r="Z2719" s="54"/>
-      <c r="AA2719" s="54"/>
-      <c r="AB2719" s="54"/>
-      <c r="AC2719" s="54"/>
-      <c r="AD2719" s="54"/>
-      <c r="AE2719" s="54"/>
-      <c r="AF2719" s="54"/>
-      <c r="AG2719" s="54"/>
-      <c r="AH2719" s="54"/>
-    </row>
-    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2837" s="54"/>
-      <c r="C2837" s="54"/>
-      <c r="D2837" s="54"/>
-      <c r="E2837" s="54"/>
-      <c r="F2837" s="54"/>
-      <c r="G2837" s="54"/>
-      <c r="H2837" s="54"/>
-      <c r="I2837" s="54"/>
-      <c r="J2837" s="54"/>
-      <c r="K2837" s="54"/>
-      <c r="L2837" s="54"/>
-      <c r="M2837" s="54"/>
-      <c r="N2837" s="54"/>
-      <c r="O2837" s="54"/>
-      <c r="P2837" s="54"/>
-      <c r="Q2837" s="54"/>
-      <c r="R2837" s="54"/>
-      <c r="S2837" s="54"/>
-      <c r="T2837" s="54"/>
-      <c r="U2837" s="54"/>
-      <c r="V2837" s="54"/>
-      <c r="W2837" s="54"/>
-      <c r="X2837" s="54"/>
-      <c r="Y2837" s="54"/>
-      <c r="Z2837" s="54"/>
-      <c r="AA2837" s="54"/>
-      <c r="AB2837" s="54"/>
-      <c r="AC2837" s="54"/>
-      <c r="AD2837" s="54"/>
-      <c r="AE2837" s="54"/>
-      <c r="AF2837" s="54"/>
-      <c r="AG2837" s="54"/>
-      <c r="AH2837" s="54"/>
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="55"/>
+      <c r="C308" s="55"/>
+      <c r="D308" s="55"/>
+      <c r="E308" s="55"/>
+      <c r="F308" s="55"/>
+      <c r="G308" s="55"/>
+      <c r="H308" s="55"/>
+      <c r="I308" s="55"/>
+      <c r="J308" s="55"/>
+      <c r="K308" s="55"/>
+      <c r="L308" s="55"/>
+      <c r="M308" s="55"/>
+      <c r="N308" s="55"/>
+      <c r="O308" s="55"/>
+      <c r="P308" s="55"/>
+      <c r="Q308" s="55"/>
+      <c r="R308" s="55"/>
+      <c r="S308" s="55"/>
+      <c r="T308" s="55"/>
+      <c r="U308" s="55"/>
+      <c r="V308" s="55"/>
+      <c r="W308" s="55"/>
+      <c r="X308" s="55"/>
+      <c r="Y308" s="55"/>
+      <c r="Z308" s="55"/>
+      <c r="AA308" s="55"/>
+      <c r="AB308" s="55"/>
+      <c r="AC308" s="55"/>
+      <c r="AD308" s="55"/>
+      <c r="AE308" s="55"/>
+      <c r="AF308" s="55"/>
+      <c r="AG308" s="55"/>
+      <c r="AH308" s="55"/>
+    </row>
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="55"/>
+      <c r="C511" s="55"/>
+      <c r="D511" s="55"/>
+      <c r="E511" s="55"/>
+      <c r="F511" s="55"/>
+      <c r="G511" s="55"/>
+      <c r="H511" s="55"/>
+      <c r="I511" s="55"/>
+      <c r="J511" s="55"/>
+      <c r="K511" s="55"/>
+      <c r="L511" s="55"/>
+      <c r="M511" s="55"/>
+      <c r="N511" s="55"/>
+      <c r="O511" s="55"/>
+      <c r="P511" s="55"/>
+      <c r="Q511" s="55"/>
+      <c r="R511" s="55"/>
+      <c r="S511" s="55"/>
+      <c r="T511" s="55"/>
+      <c r="U511" s="55"/>
+      <c r="V511" s="55"/>
+      <c r="W511" s="55"/>
+      <c r="X511" s="55"/>
+      <c r="Y511" s="55"/>
+      <c r="Z511" s="55"/>
+      <c r="AA511" s="55"/>
+      <c r="AB511" s="55"/>
+      <c r="AC511" s="55"/>
+      <c r="AD511" s="55"/>
+      <c r="AE511" s="55"/>
+      <c r="AF511" s="55"/>
+      <c r="AG511" s="55"/>
+      <c r="AH511" s="55"/>
+    </row>
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="55"/>
+      <c r="C712" s="55"/>
+      <c r="D712" s="55"/>
+      <c r="E712" s="55"/>
+      <c r="F712" s="55"/>
+      <c r="G712" s="55"/>
+      <c r="H712" s="55"/>
+      <c r="I712" s="55"/>
+      <c r="J712" s="55"/>
+      <c r="K712" s="55"/>
+      <c r="L712" s="55"/>
+      <c r="M712" s="55"/>
+      <c r="N712" s="55"/>
+      <c r="O712" s="55"/>
+      <c r="P712" s="55"/>
+      <c r="Q712" s="55"/>
+      <c r="R712" s="55"/>
+      <c r="S712" s="55"/>
+      <c r="T712" s="55"/>
+      <c r="U712" s="55"/>
+      <c r="V712" s="55"/>
+      <c r="W712" s="55"/>
+      <c r="X712" s="55"/>
+      <c r="Y712" s="55"/>
+      <c r="Z712" s="55"/>
+      <c r="AA712" s="55"/>
+      <c r="AB712" s="55"/>
+      <c r="AC712" s="55"/>
+      <c r="AD712" s="55"/>
+      <c r="AE712" s="55"/>
+      <c r="AF712" s="55"/>
+      <c r="AG712" s="55"/>
+      <c r="AH712" s="55"/>
+    </row>
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="55"/>
+      <c r="C887" s="55"/>
+      <c r="D887" s="55"/>
+      <c r="E887" s="55"/>
+      <c r="F887" s="55"/>
+      <c r="G887" s="55"/>
+      <c r="H887" s="55"/>
+      <c r="I887" s="55"/>
+      <c r="J887" s="55"/>
+      <c r="K887" s="55"/>
+      <c r="L887" s="55"/>
+      <c r="M887" s="55"/>
+      <c r="N887" s="55"/>
+      <c r="O887" s="55"/>
+      <c r="P887" s="55"/>
+      <c r="Q887" s="55"/>
+      <c r="R887" s="55"/>
+      <c r="S887" s="55"/>
+      <c r="T887" s="55"/>
+      <c r="U887" s="55"/>
+      <c r="V887" s="55"/>
+      <c r="W887" s="55"/>
+      <c r="X887" s="55"/>
+      <c r="Y887" s="55"/>
+      <c r="Z887" s="55"/>
+      <c r="AA887" s="55"/>
+      <c r="AB887" s="55"/>
+      <c r="AC887" s="55"/>
+      <c r="AD887" s="55"/>
+      <c r="AE887" s="55"/>
+      <c r="AF887" s="55"/>
+      <c r="AG887" s="55"/>
+      <c r="AH887" s="55"/>
+    </row>
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1100" s="55"/>
+      <c r="C1100" s="55"/>
+      <c r="D1100" s="55"/>
+      <c r="E1100" s="55"/>
+      <c r="F1100" s="55"/>
+      <c r="G1100" s="55"/>
+      <c r="H1100" s="55"/>
+      <c r="I1100" s="55"/>
+      <c r="J1100" s="55"/>
+      <c r="K1100" s="55"/>
+      <c r="L1100" s="55"/>
+      <c r="M1100" s="55"/>
+      <c r="N1100" s="55"/>
+      <c r="O1100" s="55"/>
+      <c r="P1100" s="55"/>
+      <c r="Q1100" s="55"/>
+      <c r="R1100" s="55"/>
+      <c r="S1100" s="55"/>
+      <c r="T1100" s="55"/>
+      <c r="U1100" s="55"/>
+      <c r="V1100" s="55"/>
+      <c r="W1100" s="55"/>
+      <c r="X1100" s="55"/>
+      <c r="Y1100" s="55"/>
+      <c r="Z1100" s="55"/>
+      <c r="AA1100" s="55"/>
+      <c r="AB1100" s="55"/>
+      <c r="AC1100" s="55"/>
+      <c r="AD1100" s="55"/>
+      <c r="AE1100" s="55"/>
+      <c r="AF1100" s="55"/>
+      <c r="AG1100" s="55"/>
+      <c r="AH1100" s="55"/>
+    </row>
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1227" s="55"/>
+      <c r="C1227" s="55"/>
+      <c r="D1227" s="55"/>
+      <c r="E1227" s="55"/>
+      <c r="F1227" s="55"/>
+      <c r="G1227" s="55"/>
+      <c r="H1227" s="55"/>
+      <c r="I1227" s="55"/>
+      <c r="J1227" s="55"/>
+      <c r="K1227" s="55"/>
+      <c r="L1227" s="55"/>
+      <c r="M1227" s="55"/>
+      <c r="N1227" s="55"/>
+      <c r="O1227" s="55"/>
+      <c r="P1227" s="55"/>
+      <c r="Q1227" s="55"/>
+      <c r="R1227" s="55"/>
+      <c r="S1227" s="55"/>
+      <c r="T1227" s="55"/>
+      <c r="U1227" s="55"/>
+      <c r="V1227" s="55"/>
+      <c r="W1227" s="55"/>
+      <c r="X1227" s="55"/>
+      <c r="Y1227" s="55"/>
+      <c r="Z1227" s="55"/>
+      <c r="AA1227" s="55"/>
+      <c r="AB1227" s="55"/>
+      <c r="AC1227" s="55"/>
+      <c r="AD1227" s="55"/>
+      <c r="AE1227" s="55"/>
+      <c r="AF1227" s="55"/>
+      <c r="AG1227" s="55"/>
+      <c r="AH1227" s="55"/>
+    </row>
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1390" s="55"/>
+      <c r="C1390" s="55"/>
+      <c r="D1390" s="55"/>
+      <c r="E1390" s="55"/>
+      <c r="F1390" s="55"/>
+      <c r="G1390" s="55"/>
+      <c r="H1390" s="55"/>
+      <c r="I1390" s="55"/>
+      <c r="J1390" s="55"/>
+      <c r="K1390" s="55"/>
+      <c r="L1390" s="55"/>
+      <c r="M1390" s="55"/>
+      <c r="N1390" s="55"/>
+      <c r="O1390" s="55"/>
+      <c r="P1390" s="55"/>
+      <c r="Q1390" s="55"/>
+      <c r="R1390" s="55"/>
+      <c r="S1390" s="55"/>
+      <c r="T1390" s="55"/>
+      <c r="U1390" s="55"/>
+      <c r="V1390" s="55"/>
+      <c r="W1390" s="55"/>
+      <c r="X1390" s="55"/>
+      <c r="Y1390" s="55"/>
+      <c r="Z1390" s="55"/>
+      <c r="AA1390" s="55"/>
+      <c r="AB1390" s="55"/>
+      <c r="AC1390" s="55"/>
+      <c r="AD1390" s="55"/>
+      <c r="AE1390" s="55"/>
+      <c r="AF1390" s="55"/>
+      <c r="AG1390" s="55"/>
+      <c r="AH1390" s="55"/>
+    </row>
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1502" s="55"/>
+      <c r="C1502" s="55"/>
+      <c r="D1502" s="55"/>
+      <c r="E1502" s="55"/>
+      <c r="F1502" s="55"/>
+      <c r="G1502" s="55"/>
+      <c r="H1502" s="55"/>
+      <c r="I1502" s="55"/>
+      <c r="J1502" s="55"/>
+      <c r="K1502" s="55"/>
+      <c r="L1502" s="55"/>
+      <c r="M1502" s="55"/>
+      <c r="N1502" s="55"/>
+      <c r="O1502" s="55"/>
+      <c r="P1502" s="55"/>
+      <c r="Q1502" s="55"/>
+      <c r="R1502" s="55"/>
+      <c r="S1502" s="55"/>
+      <c r="T1502" s="55"/>
+      <c r="U1502" s="55"/>
+      <c r="V1502" s="55"/>
+      <c r="W1502" s="55"/>
+      <c r="X1502" s="55"/>
+      <c r="Y1502" s="55"/>
+      <c r="Z1502" s="55"/>
+      <c r="AA1502" s="55"/>
+      <c r="AB1502" s="55"/>
+      <c r="AC1502" s="55"/>
+      <c r="AD1502" s="55"/>
+      <c r="AE1502" s="55"/>
+      <c r="AF1502" s="55"/>
+      <c r="AG1502" s="55"/>
+      <c r="AH1502" s="55"/>
+    </row>
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1604" s="55"/>
+      <c r="C1604" s="55"/>
+      <c r="D1604" s="55"/>
+      <c r="E1604" s="55"/>
+      <c r="F1604" s="55"/>
+      <c r="G1604" s="55"/>
+      <c r="H1604" s="55"/>
+      <c r="I1604" s="55"/>
+      <c r="J1604" s="55"/>
+      <c r="K1604" s="55"/>
+      <c r="L1604" s="55"/>
+      <c r="M1604" s="55"/>
+      <c r="N1604" s="55"/>
+      <c r="O1604" s="55"/>
+      <c r="P1604" s="55"/>
+      <c r="Q1604" s="55"/>
+      <c r="R1604" s="55"/>
+      <c r="S1604" s="55"/>
+      <c r="T1604" s="55"/>
+      <c r="U1604" s="55"/>
+      <c r="V1604" s="55"/>
+      <c r="W1604" s="55"/>
+      <c r="X1604" s="55"/>
+      <c r="Y1604" s="55"/>
+      <c r="Z1604" s="55"/>
+      <c r="AA1604" s="55"/>
+      <c r="AB1604" s="55"/>
+      <c r="AC1604" s="55"/>
+      <c r="AD1604" s="55"/>
+      <c r="AE1604" s="55"/>
+      <c r="AF1604" s="55"/>
+      <c r="AG1604" s="55"/>
+      <c r="AH1604" s="55"/>
+    </row>
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1698" s="55"/>
+      <c r="C1698" s="55"/>
+      <c r="D1698" s="55"/>
+      <c r="E1698" s="55"/>
+      <c r="F1698" s="55"/>
+      <c r="G1698" s="55"/>
+      <c r="H1698" s="55"/>
+      <c r="I1698" s="55"/>
+      <c r="J1698" s="55"/>
+      <c r="K1698" s="55"/>
+      <c r="L1698" s="55"/>
+      <c r="M1698" s="55"/>
+      <c r="N1698" s="55"/>
+      <c r="O1698" s="55"/>
+      <c r="P1698" s="55"/>
+      <c r="Q1698" s="55"/>
+      <c r="R1698" s="55"/>
+      <c r="S1698" s="55"/>
+      <c r="T1698" s="55"/>
+      <c r="U1698" s="55"/>
+      <c r="V1698" s="55"/>
+      <c r="W1698" s="55"/>
+      <c r="X1698" s="55"/>
+      <c r="Y1698" s="55"/>
+      <c r="Z1698" s="55"/>
+      <c r="AA1698" s="55"/>
+      <c r="AB1698" s="55"/>
+      <c r="AC1698" s="55"/>
+      <c r="AD1698" s="55"/>
+      <c r="AE1698" s="55"/>
+      <c r="AF1698" s="55"/>
+      <c r="AG1698" s="55"/>
+      <c r="AH1698" s="55"/>
+    </row>
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1945" s="55"/>
+      <c r="C1945" s="55"/>
+      <c r="D1945" s="55"/>
+      <c r="E1945" s="55"/>
+      <c r="F1945" s="55"/>
+      <c r="G1945" s="55"/>
+      <c r="H1945" s="55"/>
+      <c r="I1945" s="55"/>
+      <c r="J1945" s="55"/>
+      <c r="K1945" s="55"/>
+      <c r="L1945" s="55"/>
+      <c r="M1945" s="55"/>
+      <c r="N1945" s="55"/>
+      <c r="O1945" s="55"/>
+      <c r="P1945" s="55"/>
+      <c r="Q1945" s="55"/>
+      <c r="R1945" s="55"/>
+      <c r="S1945" s="55"/>
+      <c r="T1945" s="55"/>
+      <c r="U1945" s="55"/>
+      <c r="V1945" s="55"/>
+      <c r="W1945" s="55"/>
+      <c r="X1945" s="55"/>
+      <c r="Y1945" s="55"/>
+      <c r="Z1945" s="55"/>
+      <c r="AA1945" s="55"/>
+      <c r="AB1945" s="55"/>
+      <c r="AC1945" s="55"/>
+      <c r="AD1945" s="55"/>
+      <c r="AE1945" s="55"/>
+      <c r="AF1945" s="55"/>
+      <c r="AG1945" s="55"/>
+      <c r="AH1945" s="55"/>
+    </row>
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2031" s="55"/>
+      <c r="C2031" s="55"/>
+      <c r="D2031" s="55"/>
+      <c r="E2031" s="55"/>
+      <c r="F2031" s="55"/>
+      <c r="G2031" s="55"/>
+      <c r="H2031" s="55"/>
+      <c r="I2031" s="55"/>
+      <c r="J2031" s="55"/>
+      <c r="K2031" s="55"/>
+      <c r="L2031" s="55"/>
+      <c r="M2031" s="55"/>
+      <c r="N2031" s="55"/>
+      <c r="O2031" s="55"/>
+      <c r="P2031" s="55"/>
+      <c r="Q2031" s="55"/>
+      <c r="R2031" s="55"/>
+      <c r="S2031" s="55"/>
+      <c r="T2031" s="55"/>
+      <c r="U2031" s="55"/>
+      <c r="V2031" s="55"/>
+      <c r="W2031" s="55"/>
+      <c r="X2031" s="55"/>
+      <c r="Y2031" s="55"/>
+      <c r="Z2031" s="55"/>
+      <c r="AA2031" s="55"/>
+      <c r="AB2031" s="55"/>
+      <c r="AC2031" s="55"/>
+      <c r="AD2031" s="55"/>
+      <c r="AE2031" s="55"/>
+      <c r="AF2031" s="55"/>
+      <c r="AG2031" s="55"/>
+      <c r="AH2031" s="55"/>
+    </row>
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2153" s="55"/>
+      <c r="C2153" s="55"/>
+      <c r="D2153" s="55"/>
+      <c r="E2153" s="55"/>
+      <c r="F2153" s="55"/>
+      <c r="G2153" s="55"/>
+      <c r="H2153" s="55"/>
+      <c r="I2153" s="55"/>
+      <c r="J2153" s="55"/>
+      <c r="K2153" s="55"/>
+      <c r="L2153" s="55"/>
+      <c r="M2153" s="55"/>
+      <c r="N2153" s="55"/>
+      <c r="O2153" s="55"/>
+      <c r="P2153" s="55"/>
+      <c r="Q2153" s="55"/>
+      <c r="R2153" s="55"/>
+      <c r="S2153" s="55"/>
+      <c r="T2153" s="55"/>
+      <c r="U2153" s="55"/>
+      <c r="V2153" s="55"/>
+      <c r="W2153" s="55"/>
+      <c r="X2153" s="55"/>
+      <c r="Y2153" s="55"/>
+      <c r="Z2153" s="55"/>
+      <c r="AA2153" s="55"/>
+      <c r="AB2153" s="55"/>
+      <c r="AC2153" s="55"/>
+      <c r="AD2153" s="55"/>
+      <c r="AE2153" s="55"/>
+      <c r="AF2153" s="55"/>
+      <c r="AG2153" s="55"/>
+      <c r="AH2153" s="55"/>
+    </row>
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2317" s="55"/>
+      <c r="C2317" s="55"/>
+      <c r="D2317" s="55"/>
+      <c r="E2317" s="55"/>
+      <c r="F2317" s="55"/>
+      <c r="G2317" s="55"/>
+      <c r="H2317" s="55"/>
+      <c r="I2317" s="55"/>
+      <c r="J2317" s="55"/>
+      <c r="K2317" s="55"/>
+      <c r="L2317" s="55"/>
+      <c r="M2317" s="55"/>
+      <c r="N2317" s="55"/>
+      <c r="O2317" s="55"/>
+      <c r="P2317" s="55"/>
+      <c r="Q2317" s="55"/>
+      <c r="R2317" s="55"/>
+      <c r="S2317" s="55"/>
+      <c r="T2317" s="55"/>
+      <c r="U2317" s="55"/>
+      <c r="V2317" s="55"/>
+      <c r="W2317" s="55"/>
+      <c r="X2317" s="55"/>
+      <c r="Y2317" s="55"/>
+      <c r="Z2317" s="55"/>
+      <c r="AA2317" s="55"/>
+      <c r="AB2317" s="55"/>
+      <c r="AC2317" s="55"/>
+      <c r="AD2317" s="55"/>
+      <c r="AE2317" s="55"/>
+      <c r="AF2317" s="55"/>
+      <c r="AG2317" s="55"/>
+      <c r="AH2317" s="55"/>
+    </row>
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2419" s="55"/>
+      <c r="C2419" s="55"/>
+      <c r="D2419" s="55"/>
+      <c r="E2419" s="55"/>
+      <c r="F2419" s="55"/>
+      <c r="G2419" s="55"/>
+      <c r="H2419" s="55"/>
+      <c r="I2419" s="55"/>
+      <c r="J2419" s="55"/>
+      <c r="K2419" s="55"/>
+      <c r="L2419" s="55"/>
+      <c r="M2419" s="55"/>
+      <c r="N2419" s="55"/>
+      <c r="O2419" s="55"/>
+      <c r="P2419" s="55"/>
+      <c r="Q2419" s="55"/>
+      <c r="R2419" s="55"/>
+      <c r="S2419" s="55"/>
+      <c r="T2419" s="55"/>
+      <c r="U2419" s="55"/>
+      <c r="V2419" s="55"/>
+      <c r="W2419" s="55"/>
+      <c r="X2419" s="55"/>
+      <c r="Y2419" s="55"/>
+      <c r="Z2419" s="55"/>
+      <c r="AA2419" s="55"/>
+      <c r="AB2419" s="55"/>
+      <c r="AC2419" s="55"/>
+      <c r="AD2419" s="55"/>
+      <c r="AE2419" s="55"/>
+      <c r="AF2419" s="55"/>
+      <c r="AG2419" s="55"/>
+      <c r="AH2419" s="55"/>
+    </row>
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2509" s="55"/>
+      <c r="C2509" s="55"/>
+      <c r="D2509" s="55"/>
+      <c r="E2509" s="55"/>
+      <c r="F2509" s="55"/>
+      <c r="G2509" s="55"/>
+      <c r="H2509" s="55"/>
+      <c r="I2509" s="55"/>
+      <c r="J2509" s="55"/>
+      <c r="K2509" s="55"/>
+      <c r="L2509" s="55"/>
+      <c r="M2509" s="55"/>
+      <c r="N2509" s="55"/>
+      <c r="O2509" s="55"/>
+      <c r="P2509" s="55"/>
+      <c r="Q2509" s="55"/>
+      <c r="R2509" s="55"/>
+      <c r="S2509" s="55"/>
+      <c r="T2509" s="55"/>
+      <c r="U2509" s="55"/>
+      <c r="V2509" s="55"/>
+      <c r="W2509" s="55"/>
+      <c r="X2509" s="55"/>
+      <c r="Y2509" s="55"/>
+      <c r="Z2509" s="55"/>
+      <c r="AA2509" s="55"/>
+      <c r="AB2509" s="55"/>
+      <c r="AC2509" s="55"/>
+      <c r="AD2509" s="55"/>
+      <c r="AE2509" s="55"/>
+      <c r="AF2509" s="55"/>
+      <c r="AG2509" s="55"/>
+      <c r="AH2509" s="55"/>
+    </row>
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2598" s="55"/>
+      <c r="C2598" s="55"/>
+      <c r="D2598" s="55"/>
+      <c r="E2598" s="55"/>
+      <c r="F2598" s="55"/>
+      <c r="G2598" s="55"/>
+      <c r="H2598" s="55"/>
+      <c r="I2598" s="55"/>
+      <c r="J2598" s="55"/>
+      <c r="K2598" s="55"/>
+      <c r="L2598" s="55"/>
+      <c r="M2598" s="55"/>
+      <c r="N2598" s="55"/>
+      <c r="O2598" s="55"/>
+      <c r="P2598" s="55"/>
+      <c r="Q2598" s="55"/>
+      <c r="R2598" s="55"/>
+      <c r="S2598" s="55"/>
+      <c r="T2598" s="55"/>
+      <c r="U2598" s="55"/>
+      <c r="V2598" s="55"/>
+      <c r="W2598" s="55"/>
+      <c r="X2598" s="55"/>
+      <c r="Y2598" s="55"/>
+      <c r="Z2598" s="55"/>
+      <c r="AA2598" s="55"/>
+      <c r="AB2598" s="55"/>
+      <c r="AC2598" s="55"/>
+      <c r="AD2598" s="55"/>
+      <c r="AE2598" s="55"/>
+      <c r="AF2598" s="55"/>
+      <c r="AG2598" s="55"/>
+      <c r="AH2598" s="55"/>
+    </row>
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2719" s="55"/>
+      <c r="C2719" s="55"/>
+      <c r="D2719" s="55"/>
+      <c r="E2719" s="55"/>
+      <c r="F2719" s="55"/>
+      <c r="G2719" s="55"/>
+      <c r="H2719" s="55"/>
+      <c r="I2719" s="55"/>
+      <c r="J2719" s="55"/>
+      <c r="K2719" s="55"/>
+      <c r="L2719" s="55"/>
+      <c r="M2719" s="55"/>
+      <c r="N2719" s="55"/>
+      <c r="O2719" s="55"/>
+      <c r="P2719" s="55"/>
+      <c r="Q2719" s="55"/>
+      <c r="R2719" s="55"/>
+      <c r="S2719" s="55"/>
+      <c r="T2719" s="55"/>
+      <c r="U2719" s="55"/>
+      <c r="V2719" s="55"/>
+      <c r="W2719" s="55"/>
+      <c r="X2719" s="55"/>
+      <c r="Y2719" s="55"/>
+      <c r="Z2719" s="55"/>
+      <c r="AA2719" s="55"/>
+      <c r="AB2719" s="55"/>
+      <c r="AC2719" s="55"/>
+      <c r="AD2719" s="55"/>
+      <c r="AE2719" s="55"/>
+      <c r="AF2719" s="55"/>
+      <c r="AG2719" s="55"/>
+      <c r="AH2719" s="55"/>
+    </row>
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2837" s="55"/>
+      <c r="C2837" s="55"/>
+      <c r="D2837" s="55"/>
+      <c r="E2837" s="55"/>
+      <c r="F2837" s="55"/>
+      <c r="G2837" s="55"/>
+      <c r="H2837" s="55"/>
+      <c r="I2837" s="55"/>
+      <c r="J2837" s="55"/>
+      <c r="K2837" s="55"/>
+      <c r="L2837" s="55"/>
+      <c r="M2837" s="55"/>
+      <c r="N2837" s="55"/>
+      <c r="O2837" s="55"/>
+      <c r="P2837" s="55"/>
+      <c r="Q2837" s="55"/>
+      <c r="R2837" s="55"/>
+      <c r="S2837" s="55"/>
+      <c r="T2837" s="55"/>
+      <c r="U2837" s="55"/>
+      <c r="V2837" s="55"/>
+      <c r="W2837" s="55"/>
+      <c r="X2837" s="55"/>
+      <c r="Y2837" s="55"/>
+      <c r="Z2837" s="55"/>
+      <c r="AA2837" s="55"/>
+      <c r="AB2837" s="55"/>
+      <c r="AC2837" s="55"/>
+      <c r="AD2837" s="55"/>
+      <c r="AE2837" s="55"/>
+      <c r="AF2837" s="55"/>
+      <c r="AG2837" s="55"/>
+      <c r="AH2837" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -23692,21 +23724,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -23717,7 +23749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -23729,7 +23761,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -23740,7 +23772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -23751,7 +23783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -23762,7 +23794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -23774,7 +23806,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -23786,7 +23818,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -23806,7 +23838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -23827,7 +23859,7 @@
         <v>0.38774336704545448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -23848,7 +23880,7 @@
         <v>1.0869565217391304</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -23869,7 +23901,7 @@
         <v>1.5873015873015872</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -23890,7 +23922,7 @@
         <v>0.3048780487804878</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -23911,7 +23943,7 @@
         <v>0.30120481927710846</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -23932,7 +23964,7 @@
         <v>0.26737967914438499</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -23953,7 +23985,7 @@
         <v>1.2345679012345678</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -23974,7 +24006,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -23995,7 +24027,7 @@
         <v>1.2195121951219512</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -24016,7 +24048,7 @@
         <v>0.25641025641025644</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -24038,7 +24070,7 @@
         <v>3.1578947368421053</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -24060,7 +24092,7 @@
         <v>1.4285714285714284</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -24084,18 +24116,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24104,7 +24136,7 @@
         <v>0.67217630383678018</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24113,7 +24145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -24122,7 +24154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -24131,7 +24163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24140,7 +24172,7 @@
         <v>0.69311452545228336</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
